--- a/Leasing/Mapeos_CON_Leasing_V1.xlsx
+++ b/Leasing/Mapeos_CON_Leasing_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="-45" windowWidth="19455" windowHeight="4530" tabRatio="583" activeTab="1"/>
+    <workbookView xWindow="1365" yWindow="15" windowWidth="19455" windowHeight="4470" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="DESEMBOLSO-HAB_DESEMBOLSO" sheetId="8" r:id="rId1"/>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="297">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1269,6 +1269,9 @@
   </si>
   <si>
     <t>Update CON_SERV_FNRO</t>
+  </si>
+  <si>
+    <t>DESP_NOM</t>
   </si>
 </sst>
 </file>
@@ -2236,7 +2239,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -2424,6 +2427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2481,7 +2485,7 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2960,7 +2964,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2969,10 +2973,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:R151"/>
+  <dimension ref="B1:R152"/>
   <sheetViews>
-    <sheetView topLeftCell="G21" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="L50" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9:O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3009,26 +3013,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="133" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="135"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="141" t="s">
+      <c r="H2" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="142"/>
-      <c r="J2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="144"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="140"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="10"/>
       <c r="H3" s="75"/>
       <c r="I3" s="26" t="s">
@@ -3041,11 +3045,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="136"/>
-      <c r="F4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="138"/>
       <c r="G4" s="7"/>
       <c r="H4" s="76"/>
       <c r="I4" s="47" t="s">
@@ -3058,11 +3062,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="136"/>
-      <c r="F5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="138"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3074,29 +3078,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="130"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="125" t="s">
+      <c r="M7" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -4907,102 +4911,100 @@
       </c>
       <c r="R66" s="36"/>
     </row>
-    <row r="67" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L67" s="43"/>
-      <c r="M67" s="35">
+    <row r="67" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L67" s="62"/>
+      <c r="M67" s="77">
+        <v>38</v>
+      </c>
+      <c r="N67" s="145" t="s">
+        <v>144</v>
+      </c>
+      <c r="O67" s="145" t="s">
+        <v>296</v>
+      </c>
+      <c r="P67" s="145" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q67" s="145" t="s">
+        <v>21</v>
+      </c>
+      <c r="R67" s="79"/>
+    </row>
+    <row r="68" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L68" s="43"/>
+      <c r="M68" s="35">
         <v>7</v>
       </c>
-      <c r="N67" s="64" t="s">
+      <c r="N68" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="O67" s="63" t="s">
+      <c r="O68" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="P67" s="63" t="s">
+      <c r="P68" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="Q67" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R67" s="36"/>
-    </row>
-    <row r="68" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L68" s="44"/>
-      <c r="M68" s="77">
+      <c r="Q68" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R68" s="36"/>
+    </row>
+    <row r="69" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L69" s="44"/>
+      <c r="M69" s="77">
         <v>38</v>
       </c>
-      <c r="N68" s="78" t="s">
+      <c r="N69" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="O68" s="78" t="s">
+      <c r="O69" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="P68" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q68" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="R68" s="79"/>
-    </row>
-    <row r="69" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L69" s="83"/>
-      <c r="M69" s="68">
+      <c r="P69" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q69" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="R69" s="79"/>
+    </row>
+    <row r="70" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L70" s="83"/>
+      <c r="M70" s="68">
         <v>29</v>
       </c>
-      <c r="N69" s="24" t="s">
+      <c r="N70" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="O69" s="65" t="s">
+      <c r="O70" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="P69" s="65" t="s">
+      <c r="P70" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q69" s="65" t="s">
+      <c r="Q70" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R69" s="80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L70" s="43"/>
-      <c r="M70" s="35">
-        <v>43</v>
-      </c>
-      <c r="N70" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="O70" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="P70" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q70" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R70" s="36" t="s">
+      <c r="R70" s="80" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="71" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L71" s="43"/>
       <c r="M71" s="35">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N71" s="41" t="s">
         <v>225</v>
       </c>
       <c r="O71" s="63" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="P71" s="63" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q71" s="63" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R71" s="36" t="s">
         <v>14</v>
@@ -5011,32 +5013,34 @@
     <row r="72" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L72" s="43"/>
       <c r="M72" s="35">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N72" s="41" t="s">
         <v>225</v>
       </c>
       <c r="O72" s="63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P72" s="63" t="s">
         <v>25</v>
       </c>
       <c r="Q72" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R72" s="36"/>
+        <v>18</v>
+      </c>
+      <c r="R72" s="36" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="73" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L73" s="43"/>
       <c r="M73" s="35">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N73" s="41" t="s">
         <v>225</v>
       </c>
       <c r="O73" s="63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P73" s="63" t="s">
         <v>25</v>
@@ -5049,13 +5053,13 @@
     <row r="74" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L74" s="43"/>
       <c r="M74" s="35">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N74" s="41" t="s">
         <v>225</v>
       </c>
       <c r="O74" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P74" s="63" t="s">
         <v>25</v>
@@ -5074,7 +5078,7 @@
         <v>225</v>
       </c>
       <c r="O75" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P75" s="63" t="s">
         <v>25</v>
@@ -5093,10 +5097,10 @@
         <v>225</v>
       </c>
       <c r="O76" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P76" s="63" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q76" s="63" t="s">
         <v>21</v>
@@ -5112,7 +5116,7 @@
         <v>225</v>
       </c>
       <c r="O77" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P77" s="63" t="s">
         <v>17</v>
@@ -5124,17 +5128,17 @@
     </row>
     <row r="78" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L78" s="43"/>
-      <c r="M78" s="48">
-        <v>49</v>
+      <c r="M78" s="35">
+        <v>35</v>
       </c>
       <c r="N78" s="41" t="s">
         <v>225</v>
       </c>
       <c r="O78" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P78" s="63" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q78" s="63" t="s">
         <v>21</v>
@@ -5143,14 +5147,14 @@
     </row>
     <row r="79" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L79" s="43"/>
-      <c r="M79" s="35">
-        <v>45</v>
+      <c r="M79" s="48">
+        <v>49</v>
       </c>
       <c r="N79" s="41" t="s">
         <v>225</v>
       </c>
       <c r="O79" s="63" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="P79" s="63" t="s">
         <v>25</v>
@@ -5163,94 +5167,94 @@
     <row r="80" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L80" s="43"/>
       <c r="M80" s="35">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="N80" s="41" t="s">
         <v>225</v>
       </c>
       <c r="O80" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="P80" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q80" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R80" s="36"/>
+    </row>
+    <row r="81" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L81" s="43"/>
+      <c r="M81" s="35">
+        <v>7</v>
+      </c>
+      <c r="N81" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="O81" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="P80" s="63" t="s">
+      <c r="P81" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="Q80" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R80" s="36"/>
-    </row>
-    <row r="81" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L81" s="44"/>
-      <c r="M81" s="77">
+      <c r="Q81" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R81" s="36"/>
+    </row>
+    <row r="82" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L82" s="44"/>
+      <c r="M82" s="77">
         <v>44</v>
       </c>
-      <c r="N81" s="81" t="s">
+      <c r="N82" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="O81" s="82" t="s">
+      <c r="O82" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="P81" s="82" t="s">
+      <c r="P82" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="Q81" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="R81" s="79"/>
-    </row>
-    <row r="82" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L82" s="83"/>
-      <c r="M82" s="68">
+      <c r="Q82" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="R82" s="79"/>
+    </row>
+    <row r="83" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L83" s="83"/>
+      <c r="M83" s="68">
         <v>29</v>
       </c>
-      <c r="N82" s="24" t="s">
+      <c r="N83" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="O82" s="65" t="s">
+      <c r="O83" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="P82" s="65" t="s">
+      <c r="P83" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q82" s="65" t="s">
+      <c r="Q83" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R82" s="80" t="s">
+      <c r="R83" s="80" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L83" s="43"/>
-      <c r="M83" s="35">
-        <v>35</v>
-      </c>
-      <c r="N83" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="O83" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="P83" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q83" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R83" s="36"/>
     </row>
     <row r="84" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L84" s="43"/>
       <c r="M84" s="35">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N84" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O84" s="63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P84" s="63" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q84" s="63" t="s">
         <v>21</v>
@@ -5260,16 +5264,16 @@
     <row r="85" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L85" s="43"/>
       <c r="M85" s="35">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N85" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="O85" s="41" t="s">
-        <v>163</v>
+      <c r="O85" s="63" t="s">
+        <v>162</v>
       </c>
       <c r="P85" s="63" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q85" s="63" t="s">
         <v>21</v>
@@ -5279,16 +5283,16 @@
     <row r="86" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L86" s="43"/>
       <c r="M86" s="35">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="N86" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O86" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P86" s="63" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q86" s="63" t="s">
         <v>21</v>
@@ -5298,16 +5302,16 @@
     <row r="87" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L87" s="43"/>
       <c r="M87" s="35">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N87" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="O87" s="63" t="s">
-        <v>165</v>
+      <c r="O87" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="P87" s="63" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q87" s="63" t="s">
         <v>21</v>
@@ -5317,16 +5321,16 @@
     <row r="88" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L88" s="43"/>
       <c r="M88" s="35">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N88" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O88" s="63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P88" s="63" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q88" s="63" t="s">
         <v>21</v>
@@ -5336,16 +5340,16 @@
     <row r="89" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L89" s="43"/>
       <c r="M89" s="35">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N89" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O89" s="63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P89" s="63" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q89" s="63" t="s">
         <v>21</v>
@@ -5355,16 +5359,16 @@
     <row r="90" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L90" s="43"/>
       <c r="M90" s="35">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N90" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O90" s="63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P90" s="63" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q90" s="63" t="s">
         <v>21</v>
@@ -5374,16 +5378,16 @@
     <row r="91" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L91" s="43"/>
       <c r="M91" s="35">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N91" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O91" s="63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P91" s="63" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q91" s="63" t="s">
         <v>21</v>
@@ -5393,16 +5397,16 @@
     <row r="92" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L92" s="43"/>
       <c r="M92" s="35">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N92" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O92" s="63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P92" s="63" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q92" s="63" t="s">
         <v>21</v>
@@ -5412,16 +5416,16 @@
     <row r="93" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L93" s="43"/>
       <c r="M93" s="35">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N93" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O93" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P93" s="63" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q93" s="63" t="s">
         <v>21</v>
@@ -5437,7 +5441,7 @@
         <v>226</v>
       </c>
       <c r="O94" s="63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P94" s="63" t="s">
         <v>25</v>
@@ -5450,16 +5454,16 @@
     <row r="95" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L95" s="43"/>
       <c r="M95" s="35">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N95" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O95" s="63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P95" s="63" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q95" s="63" t="s">
         <v>21</v>
@@ -5469,16 +5473,16 @@
     <row r="96" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L96" s="43"/>
       <c r="M96" s="35">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N96" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O96" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P96" s="63" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q96" s="63" t="s">
         <v>21</v>
@@ -5488,16 +5492,16 @@
     <row r="97" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L97" s="43"/>
       <c r="M97" s="35">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N97" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O97" s="63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P97" s="63" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q97" s="63" t="s">
         <v>21</v>
@@ -5507,16 +5511,16 @@
     <row r="98" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L98" s="43"/>
       <c r="M98" s="35">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N98" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O98" s="63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P98" s="63" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q98" s="63" t="s">
         <v>21</v>
@@ -5526,16 +5530,16 @@
     <row r="99" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L99" s="43"/>
       <c r="M99" s="35">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N99" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O99" s="63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P99" s="63" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q99" s="63" t="s">
         <v>21</v>
@@ -5544,57 +5548,57 @@
     </row>
     <row r="100" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L100" s="43"/>
-      <c r="M100" s="48">
-        <v>52</v>
+      <c r="M100" s="35">
+        <v>38</v>
       </c>
       <c r="N100" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="O100" s="41" t="s">
-        <v>178</v>
+      <c r="O100" s="63" t="s">
+        <v>177</v>
       </c>
       <c r="P100" s="63" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q100" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="R100" s="36" t="s">
-        <v>14</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="R100" s="36"/>
     </row>
     <row r="101" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L101" s="43"/>
-      <c r="M101" s="35">
-        <v>35</v>
+      <c r="M101" s="48">
+        <v>52</v>
       </c>
       <c r="N101" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="O101" s="63" t="s">
-        <v>179</v>
+      <c r="O101" s="41" t="s">
+        <v>178</v>
       </c>
       <c r="P101" s="63" t="s">
         <v>25</v>
       </c>
       <c r="Q101" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R101" s="36"/>
+        <v>18</v>
+      </c>
+      <c r="R101" s="36" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="102" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L102" s="43"/>
       <c r="M102" s="35">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N102" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O102" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P102" s="63" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q102" s="63" t="s">
         <v>21</v>
@@ -5604,16 +5608,16 @@
     <row r="103" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L103" s="43"/>
       <c r="M103" s="35">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N103" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O103" s="63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P103" s="63" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q103" s="63" t="s">
         <v>21</v>
@@ -5623,16 +5627,16 @@
     <row r="104" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L104" s="43"/>
       <c r="M104" s="35">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N104" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O104" s="63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P104" s="63" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q104" s="63" t="s">
         <v>21</v>
@@ -5642,16 +5646,16 @@
     <row r="105" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L105" s="43"/>
       <c r="M105" s="35">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N105" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O105" s="63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P105" s="63" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q105" s="63" t="s">
         <v>21</v>
@@ -5667,7 +5671,7 @@
         <v>226</v>
       </c>
       <c r="O106" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P106" s="63" t="s">
         <v>25</v>
@@ -5686,7 +5690,7 @@
         <v>226</v>
       </c>
       <c r="O107" s="63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P107" s="63" t="s">
         <v>25</v>
@@ -5699,16 +5703,16 @@
     <row r="108" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L108" s="43"/>
       <c r="M108" s="35">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N108" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O108" s="63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P108" s="63" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q108" s="63" t="s">
         <v>21</v>
@@ -5718,16 +5722,16 @@
     <row r="109" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L109" s="43"/>
       <c r="M109" s="35">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N109" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O109" s="63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P109" s="63" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q109" s="63" t="s">
         <v>21</v>
@@ -5737,16 +5741,16 @@
     <row r="110" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L110" s="43"/>
       <c r="M110" s="35">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N110" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O110" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P110" s="63" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q110" s="63" t="s">
         <v>21</v>
@@ -5756,16 +5760,16 @@
     <row r="111" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L111" s="43"/>
       <c r="M111" s="35">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N111" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="O111" s="41" t="s">
-        <v>189</v>
+      <c r="O111" s="63" t="s">
+        <v>188</v>
       </c>
       <c r="P111" s="63" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q111" s="63" t="s">
         <v>21</v>
@@ -5774,36 +5778,36 @@
     </row>
     <row r="112" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L112" s="43"/>
-      <c r="M112" s="88">
-        <v>67</v>
-      </c>
-      <c r="N112" s="89" t="s">
+      <c r="M112" s="35">
+        <v>14</v>
+      </c>
+      <c r="N112" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="O112" s="89" t="s">
-        <v>190</v>
-      </c>
-      <c r="P112" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q112" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="R112" s="91"/>
+      <c r="O112" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="P112" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q112" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R112" s="36"/>
     </row>
     <row r="113" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L113" s="43"/>
-      <c r="M113" s="93">
+      <c r="M113" s="88">
         <v>67</v>
       </c>
       <c r="N113" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="O113" s="90" t="s">
-        <v>191</v>
+      <c r="O113" s="89" t="s">
+        <v>190</v>
       </c>
       <c r="P113" s="90" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q113" s="90" t="s">
         <v>21</v>
@@ -5812,36 +5816,36 @@
     </row>
     <row r="114" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L114" s="43"/>
-      <c r="M114" s="35">
-        <v>38</v>
-      </c>
-      <c r="N114" s="41" t="s">
+      <c r="M114" s="93">
+        <v>67</v>
+      </c>
+      <c r="N114" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="O114" s="63" t="s">
-        <v>192</v>
-      </c>
-      <c r="P114" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q114" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R114" s="36"/>
+      <c r="O114" s="90" t="s">
+        <v>191</v>
+      </c>
+      <c r="P114" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q114" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="R114" s="91"/>
     </row>
     <row r="115" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L115" s="43"/>
       <c r="M115" s="35">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N115" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O115" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P115" s="63" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q115" s="63" t="s">
         <v>21</v>
@@ -5851,13 +5855,13 @@
     <row r="116" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L116" s="43"/>
       <c r="M116" s="35">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="N116" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O116" s="63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P116" s="63" t="s">
         <v>20</v>
@@ -5876,10 +5880,10 @@
         <v>226</v>
       </c>
       <c r="O117" s="63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P117" s="63" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q117" s="63" t="s">
         <v>21</v>
@@ -5895,7 +5899,7 @@
         <v>226</v>
       </c>
       <c r="O118" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P118" s="63" t="s">
         <v>25</v>
@@ -5914,10 +5918,10 @@
         <v>226</v>
       </c>
       <c r="O119" s="63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P119" s="63" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q119" s="63" t="s">
         <v>21</v>
@@ -5933,10 +5937,10 @@
         <v>226</v>
       </c>
       <c r="O120" s="63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P120" s="63" t="s">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="Q120" s="63" t="s">
         <v>21</v>
@@ -5952,10 +5956,10 @@
         <v>226</v>
       </c>
       <c r="O121" s="63" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P121" s="63" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q121" s="63" t="s">
         <v>21</v>
@@ -5965,16 +5969,16 @@
     <row r="122" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L122" s="43"/>
       <c r="M122" s="35">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N122" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O122" s="63" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P122" s="63" t="s">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="Q122" s="63" t="s">
         <v>21</v>
@@ -5990,7 +5994,7 @@
         <v>226</v>
       </c>
       <c r="O123" s="63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P123" s="63" t="s">
         <v>25</v>
@@ -6002,17 +6006,17 @@
     </row>
     <row r="124" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L124" s="43"/>
-      <c r="M124" s="48">
-        <v>56</v>
+      <c r="M124" s="35">
+        <v>35</v>
       </c>
       <c r="N124" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O124" s="63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P124" s="63" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q124" s="63" t="s">
         <v>21</v>
@@ -6021,14 +6025,14 @@
     </row>
     <row r="125" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L125" s="43"/>
-      <c r="M125" s="2">
-        <v>35</v>
+      <c r="M125" s="48">
+        <v>56</v>
       </c>
       <c r="N125" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="O125" s="41" t="s">
-        <v>205</v>
+      <c r="O125" s="63" t="s">
+        <v>204</v>
       </c>
       <c r="P125" s="63" t="s">
         <v>17</v>
@@ -6040,17 +6044,17 @@
     </row>
     <row r="126" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L126" s="43"/>
-      <c r="M126" s="35">
-        <v>7</v>
+      <c r="M126" s="2">
+        <v>35</v>
       </c>
       <c r="N126" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="O126" s="63" t="s">
-        <v>206</v>
+      <c r="O126" s="41" t="s">
+        <v>205</v>
       </c>
       <c r="P126" s="63" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="Q126" s="63" t="s">
         <v>21</v>
@@ -6060,16 +6064,16 @@
     <row r="127" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L127" s="43"/>
       <c r="M127" s="35">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="N127" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="O127" s="41" t="s">
-        <v>207</v>
+      <c r="O127" s="63" t="s">
+        <v>206</v>
       </c>
       <c r="P127" s="63" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="Q127" s="63" t="s">
         <v>21</v>
@@ -6079,13 +6083,13 @@
     <row r="128" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L128" s="43"/>
       <c r="M128" s="35">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N128" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="O128" s="63" t="s">
-        <v>208</v>
+      <c r="O128" s="41" t="s">
+        <v>207</v>
       </c>
       <c r="P128" s="63" t="s">
         <v>25</v>
@@ -6098,16 +6102,16 @@
     <row r="129" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L129" s="43"/>
       <c r="M129" s="35">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="N129" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="O129" s="41" t="s">
-        <v>209</v>
+      <c r="O129" s="63" t="s">
+        <v>208</v>
       </c>
       <c r="P129" s="63" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="Q129" s="63" t="s">
         <v>21</v>
@@ -6117,13 +6121,13 @@
     <row r="130" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L130" s="43"/>
       <c r="M130" s="35">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="N130" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="O130" s="63" t="s">
-        <v>210</v>
+      <c r="O130" s="41" t="s">
+        <v>209</v>
       </c>
       <c r="P130" s="63" t="s">
         <v>131</v>
@@ -6136,16 +6140,16 @@
     <row r="131" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L131" s="43"/>
       <c r="M131" s="35">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N131" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O131" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P131" s="63" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="Q131" s="63" t="s">
         <v>21</v>
@@ -6155,13 +6159,13 @@
     <row r="132" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L132" s="43"/>
       <c r="M132" s="35">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="N132" s="41" t="s">
         <v>226</v>
       </c>
       <c r="O132" s="63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P132" s="63" t="s">
         <v>25</v>
@@ -6180,7 +6184,7 @@
         <v>226</v>
       </c>
       <c r="O133" s="63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P133" s="63" t="s">
         <v>25</v>
@@ -6193,13 +6197,13 @@
     <row r="134" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L134" s="43"/>
       <c r="M134" s="35">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="N134" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="O134" s="41" t="s">
-        <v>214</v>
+      <c r="O134" s="63" t="s">
+        <v>213</v>
       </c>
       <c r="P134" s="63" t="s">
         <v>25</v>
@@ -6212,13 +6216,13 @@
     <row r="135" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L135" s="43"/>
       <c r="M135" s="35">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="N135" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="O135" s="63" t="s">
-        <v>215</v>
+      <c r="O135" s="41" t="s">
+        <v>214</v>
       </c>
       <c r="P135" s="63" t="s">
         <v>25</v>
@@ -6231,16 +6235,16 @@
     <row r="136" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L136" s="43"/>
       <c r="M136" s="35">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="N136" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="O136" s="41" t="s">
-        <v>216</v>
+      <c r="O136" s="63" t="s">
+        <v>215</v>
       </c>
       <c r="P136" s="63" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="Q136" s="63" t="s">
         <v>21</v>
@@ -6255,11 +6259,11 @@
       <c r="N137" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="O137" s="63" t="s">
-        <v>217</v>
+      <c r="O137" s="41" t="s">
+        <v>216</v>
       </c>
       <c r="P137" s="63" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="Q137" s="63" t="s">
         <v>21</v>
@@ -6275,7 +6279,7 @@
         <v>226</v>
       </c>
       <c r="O138" s="63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P138" s="63" t="s">
         <v>25</v>
@@ -6294,90 +6298,88 @@
         <v>226</v>
       </c>
       <c r="O139" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="P139" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q139" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R139" s="36"/>
+    </row>
+    <row r="140" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L140" s="43"/>
+      <c r="M140" s="35">
+        <v>38</v>
+      </c>
+      <c r="N140" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="O140" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="P139" s="63" t="s">
+      <c r="P140" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="Q139" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R139" s="36"/>
-    </row>
-    <row r="140" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L140" s="44"/>
-      <c r="M140" s="94">
+      <c r="Q140" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R140" s="36"/>
+    </row>
+    <row r="141" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L141" s="44"/>
+      <c r="M141" s="94">
         <v>67</v>
       </c>
-      <c r="N140" s="95" t="s">
+      <c r="N141" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="O140" s="96" t="s">
+      <c r="O141" s="96" t="s">
         <v>220</v>
       </c>
-      <c r="P140" s="97" t="s">
+      <c r="P141" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="Q140" s="97" t="s">
-        <v>21</v>
-      </c>
-      <c r="R140" s="98"/>
-    </row>
-    <row r="141" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L141" s="83"/>
-      <c r="M141" s="68">
+      <c r="Q141" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="R141" s="98"/>
+    </row>
+    <row r="142" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L142" s="83"/>
+      <c r="M142" s="68">
         <v>44</v>
       </c>
-      <c r="N141" s="24" t="s">
+      <c r="N142" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="O141" s="65" t="s">
+      <c r="O142" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="P141" s="65" t="s">
+      <c r="P142" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Q141" s="65" t="s">
+      <c r="Q142" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R141" s="80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="142" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L142" s="43"/>
-      <c r="M142" s="35">
-        <v>29</v>
-      </c>
-      <c r="N142" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="O142" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="P142" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q142" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="R142" s="36" t="s">
+      <c r="R142" s="80" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="143" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L143" s="43"/>
       <c r="M143" s="35">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N143" s="41" t="s">
         <v>227</v>
       </c>
       <c r="O143" s="63" t="s">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="P143" s="63" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q143" s="63" t="s">
         <v>18</v>
@@ -6389,16 +6391,16 @@
     <row r="144" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L144" s="43"/>
       <c r="M144" s="35">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="N144" s="41" t="s">
         <v>227</v>
       </c>
       <c r="O144" s="63" t="s">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="P144" s="63" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q144" s="63" t="s">
         <v>18</v>
@@ -6410,54 +6412,56 @@
     <row r="145" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L145" s="43"/>
       <c r="M145" s="35">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="N145" s="41" t="s">
         <v>227</v>
       </c>
       <c r="O145" s="63" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="P145" s="63" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q145" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R145" s="36"/>
+      <c r="R145" s="36" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="146" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L146" s="43"/>
       <c r="M146" s="35">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="N146" s="41" t="s">
         <v>227</v>
       </c>
       <c r="O146" s="63" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="P146" s="63" t="s">
         <v>25</v>
       </c>
       <c r="Q146" s="63" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R146" s="36"/>
     </row>
     <row r="147" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L147" s="43"/>
       <c r="M147" s="35">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N147" s="41" t="s">
         <v>227</v>
       </c>
       <c r="O147" s="63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P147" s="63" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q147" s="63" t="s">
         <v>21</v>
@@ -6467,16 +6471,16 @@
     <row r="148" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L148" s="43"/>
       <c r="M148" s="35">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N148" s="41" t="s">
         <v>227</v>
       </c>
       <c r="O148" s="63" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P148" s="63" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q148" s="63" t="s">
         <v>21</v>
@@ -6486,16 +6490,16 @@
     <row r="149" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L149" s="43"/>
       <c r="M149" s="35">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N149" s="41" t="s">
         <v>227</v>
       </c>
       <c r="O149" s="63" t="s">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="P149" s="63" t="s">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="Q149" s="63" t="s">
         <v>21</v>
@@ -6505,40 +6509,59 @@
     <row r="150" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L150" s="43"/>
       <c r="M150" s="35">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N150" s="41" t="s">
         <v>227</v>
       </c>
       <c r="O150" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="P150" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q150" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R150" s="36"/>
+    </row>
+    <row r="151" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L151" s="43"/>
+      <c r="M151" s="35">
+        <v>66</v>
+      </c>
+      <c r="N151" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="O151" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="P150" s="63" t="s">
+      <c r="P151" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="Q150" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R150" s="36"/>
-    </row>
-    <row r="151" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L151" s="44"/>
-      <c r="M151" s="84">
+      <c r="Q151" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R151" s="36"/>
+    </row>
+    <row r="152" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L152" s="44"/>
+      <c r="M152" s="84">
         <v>38</v>
       </c>
-      <c r="N151" s="85" t="s">
+      <c r="N152" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="O151" s="86" t="s">
+      <c r="O152" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="P151" s="86" t="s">
+      <c r="P152" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="Q151" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="R151" s="87"/>
+      <c r="Q152" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="R152" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6562,7 +6585,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -6600,26 +6623,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="135"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="141" t="s">
+      <c r="H2" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="142"/>
-      <c r="J2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="144"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="140"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="10"/>
       <c r="H3" s="75"/>
       <c r="I3" s="26" t="s">
@@ -6632,11 +6655,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="136"/>
-      <c r="F4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="138"/>
       <c r="G4" s="7"/>
       <c r="H4" s="76"/>
       <c r="I4" s="47" t="s">
@@ -6649,11 +6672,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="136"/>
-      <c r="F5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="138"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6665,29 +6688,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="130"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="125" t="s">
+      <c r="M7" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6933,7 +6956,7 @@
       <c r="M13" s="119">
         <v>25</v>
       </c>
-      <c r="N13" s="144" t="s">
+      <c r="N13" s="125" t="s">
         <v>295</v>
       </c>
       <c r="O13" s="121" t="s">

--- a/Leasing/Mapeos_CON_Leasing_V1.xlsx
+++ b/Leasing/Mapeos_CON_Leasing_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="15" windowWidth="19455" windowHeight="4470" tabRatio="583"/>
+    <workbookView xWindow="1365" yWindow="75" windowWidth="19455" windowHeight="4410" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="DESEMBOLSO-HAB_DESEMBOLSO" sheetId="8" r:id="rId1"/>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="300">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1272,16 +1272,39 @@
   </si>
   <si>
     <t>DESP_NOM</t>
+  </si>
+  <si>
+    <t>MTO_INC</t>
+  </si>
+  <si>
+    <t>NRO_OBL_ANT</t>
+  </si>
+  <si>
+    <t>NRO_OBL_REST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2151,332 +2174,383 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="86">
+  <cellStyleXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="85" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="85" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="85" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="85" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="34" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="34" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="85" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="85" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="87" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2485,9 +2559,9 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="87" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="86">
+  <cellStyles count="131">
     <cellStyle name="20% - Accent1" xfId="1"/>
     <cellStyle name="20% - Accent2" xfId="2"/>
     <cellStyle name="20% - Accent3" xfId="3"/>
@@ -2495,11 +2569,17 @@
     <cellStyle name="20% - Accent5" xfId="5"/>
     <cellStyle name="20% - Accent6" xfId="6"/>
     <cellStyle name="20% - Énfasis1" xfId="7" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1 2" xfId="88"/>
     <cellStyle name="20% - Énfasis2" xfId="8" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2 2" xfId="89"/>
     <cellStyle name="20% - Énfasis3" xfId="9" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3 2" xfId="90"/>
     <cellStyle name="20% - Énfasis4" xfId="10" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4 2" xfId="91"/>
     <cellStyle name="20% - Énfasis5" xfId="11" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5 2" xfId="92"/>
     <cellStyle name="20% - Énfasis6" xfId="12" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6 2" xfId="93"/>
     <cellStyle name="40% - Accent1" xfId="13"/>
     <cellStyle name="40% - Accent2" xfId="14"/>
     <cellStyle name="40% - Accent3" xfId="15"/>
@@ -2507,11 +2587,17 @@
     <cellStyle name="40% - Accent5" xfId="17"/>
     <cellStyle name="40% - Accent6" xfId="18"/>
     <cellStyle name="40% - Énfasis1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1 2" xfId="94"/>
     <cellStyle name="40% - Énfasis2" xfId="20" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2 2" xfId="95"/>
     <cellStyle name="40% - Énfasis3" xfId="21" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3 2" xfId="96"/>
     <cellStyle name="40% - Énfasis4" xfId="22" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4 2" xfId="97"/>
     <cellStyle name="40% - Énfasis5" xfId="23" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5 2" xfId="98"/>
     <cellStyle name="40% - Énfasis6" xfId="24" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6 2" xfId="99"/>
     <cellStyle name="60% - Accent1" xfId="25"/>
     <cellStyle name="60% - Accent2" xfId="26"/>
     <cellStyle name="60% - Accent3" xfId="27"/>
@@ -2519,11 +2605,17 @@
     <cellStyle name="60% - Accent5" xfId="29"/>
     <cellStyle name="60% - Accent6" xfId="30"/>
     <cellStyle name="60% - Énfasis1" xfId="31" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1 2" xfId="100"/>
     <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2 2" xfId="101"/>
     <cellStyle name="60% - Énfasis3" xfId="33" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3 2" xfId="102"/>
     <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4 2" xfId="103"/>
     <cellStyle name="60% - Énfasis5" xfId="35" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5 2" xfId="104"/>
     <cellStyle name="60% - Énfasis6" xfId="36" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6 2" xfId="105"/>
     <cellStyle name="Accent1" xfId="37"/>
     <cellStyle name="Accent2" xfId="38"/>
     <cellStyle name="Accent3" xfId="39"/>
@@ -2532,19 +2624,31 @@
     <cellStyle name="Accent6" xfId="42"/>
     <cellStyle name="Bad" xfId="43"/>
     <cellStyle name="Buena" xfId="44" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena 2" xfId="106"/>
     <cellStyle name="Calculation" xfId="45"/>
     <cellStyle name="Cálculo" xfId="46" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cálculo 2" xfId="107"/>
     <cellStyle name="Celda de comprobación" xfId="47" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación 2" xfId="108"/>
     <cellStyle name="Celda vinculada" xfId="48" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada 2" xfId="109"/>
     <cellStyle name="Check Cell" xfId="49"/>
     <cellStyle name="Encabezado 4" xfId="50" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4 2" xfId="110"/>
     <cellStyle name="Énfasis1" xfId="51" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis1 2" xfId="111"/>
     <cellStyle name="Énfasis2" xfId="52" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis2 2" xfId="112"/>
     <cellStyle name="Énfasis3" xfId="53" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis3 2" xfId="113"/>
     <cellStyle name="Énfasis4" xfId="54" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis4 2" xfId="114"/>
     <cellStyle name="Énfasis5" xfId="55" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis5 2" xfId="115"/>
     <cellStyle name="Énfasis6" xfId="56" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Énfasis6 2" xfId="116"/>
     <cellStyle name="Entrada" xfId="57" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Entrada 2" xfId="117"/>
     <cellStyle name="Explanatory Text" xfId="58"/>
     <cellStyle name="Good" xfId="59"/>
     <cellStyle name="Heading 1" xfId="60"/>
@@ -2552,27 +2656,42 @@
     <cellStyle name="Heading 3" xfId="62"/>
     <cellStyle name="Heading 4" xfId="63"/>
     <cellStyle name="Incorrecto" xfId="64" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Incorrecto 2" xfId="118"/>
     <cellStyle name="Input" xfId="65"/>
     <cellStyle name="l]_x000d__x000a_MultiplesUnidades=True_x000d__x000a_log=2_x000d__x000a_DistribucionForm=False_x000d__x000a_Novedades=proxy:8080/data/sim/sim44htm" xfId="66"/>
     <cellStyle name="Linked Cell" xfId="67"/>
     <cellStyle name="Neutral" xfId="68" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="119"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="69"/>
+    <cellStyle name="Normal 2 2" xfId="130"/>
     <cellStyle name="Normal 3" xfId="85"/>
+    <cellStyle name="Normal 4" xfId="87"/>
+    <cellStyle name="Normal 5" xfId="86"/>
+    <cellStyle name="Normal 6" xfId="129"/>
     <cellStyle name="Normal_Libro1" xfId="70"/>
     <cellStyle name="Normal_Planilla_Mapeo_CCCLTEMT" xfId="71"/>
     <cellStyle name="Notas" xfId="72" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Notas 2" xfId="120"/>
     <cellStyle name="Note" xfId="73"/>
     <cellStyle name="Output" xfId="74"/>
     <cellStyle name="Salida" xfId="75" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Salida 2" xfId="121"/>
     <cellStyle name="Texto de advertencia" xfId="76" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia 2" xfId="122"/>
     <cellStyle name="Texto explicativo" xfId="77" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo 2" xfId="123"/>
     <cellStyle name="Title" xfId="78"/>
     <cellStyle name="Título" xfId="79" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 1" xfId="80"/>
+    <cellStyle name="Título 1 2" xfId="125"/>
     <cellStyle name="Título 2" xfId="81" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 2 2" xfId="126"/>
     <cellStyle name="Título 3" xfId="82" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 3 2" xfId="127"/>
+    <cellStyle name="Título 4" xfId="124"/>
     <cellStyle name="Total" xfId="83" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Total 2" xfId="128"/>
     <cellStyle name="Warning Text" xfId="84"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2973,10 +3092,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:R152"/>
+  <dimension ref="B1:R158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L50" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:O69"/>
+    <sheetView tabSelected="1" topLeftCell="L74" workbookViewId="0">
+      <selection activeCell="O147" sqref="O83:O147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2996,7 +3115,7 @@
     <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -3013,28 +3132,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="139" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="142" t="s">
+      <c r="H2" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="143"/>
-      <c r="J2" s="144"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="150"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="141"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="147"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="75"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="26" t="s">
         <v>147</v>
       </c>
@@ -3045,14 +3164,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="138"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="144"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="47" t="s">
+      <c r="H4" s="74"/>
+      <c r="I4" s="46" t="s">
         <v>148</v>
       </c>
       <c r="J4" s="37"/>
@@ -3062,11 +3181,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="137"/>
-      <c r="F5" s="138"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3078,29 +3197,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="128" t="s">
+      <c r="I7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="129"/>
-      <c r="K7" s="130"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="126" t="s">
+      <c r="M7" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3152,45 +3271,45 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="45">
+      <c r="B9" s="44">
         <v>1</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="51" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="68">
+      <c r="F9" s="45"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="67">
         <v>29</v>
       </c>
       <c r="J9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="99" t="s">
+      <c r="K9" s="97" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="103"/>
-      <c r="M9" s="38">
+      <c r="L9" s="101"/>
+      <c r="M9" s="129">
         <v>29</v>
       </c>
-      <c r="N9" s="72" t="s">
+      <c r="N9" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="O9" s="65" t="s">
+      <c r="O9" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="65" t="s">
+      <c r="P9" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="65" t="s">
+      <c r="Q9" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="42" t="s">
+      <c r="R9" s="41" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3198,451 +3317,451 @@
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="41"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="61"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="35">
         <v>30</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="92" t="s">
+      <c r="K10" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="103"/>
-      <c r="M10" s="25">
+      <c r="L10" s="101"/>
+      <c r="M10" s="128">
         <v>30</v>
       </c>
-      <c r="N10" s="64" t="s">
+      <c r="N10" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O10" s="63" t="s">
+      <c r="O10" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="63" t="s">
+      <c r="P10" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="74"/>
+      <c r="Q10" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="72"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="41"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="61"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="35">
         <v>31</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="92" t="s">
+      <c r="K11" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="103"/>
-      <c r="M11" s="25">
+      <c r="L11" s="101"/>
+      <c r="M11" s="128">
         <v>31</v>
       </c>
-      <c r="N11" s="64" t="s">
+      <c r="N11" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O11" s="63" t="s">
+      <c r="O11" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="63" t="s">
+      <c r="P11" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R11" s="39"/>
+      <c r="Q11" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="38"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="25">
         <v>4</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="41"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="61"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="35">
         <v>32</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="K12" s="100" t="s">
+      <c r="K12" s="98" t="s">
         <v>248</v>
       </c>
-      <c r="L12" s="103"/>
-      <c r="M12" s="25">
+      <c r="L12" s="101"/>
+      <c r="M12" s="128">
         <v>32</v>
       </c>
-      <c r="N12" s="64" t="s">
+      <c r="N12" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O12" s="63" t="s">
+      <c r="O12" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="39"/>
+      <c r="P12" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="38"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="48">
+      <c r="B13" s="47">
         <v>5</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="50" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="61"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="35">
         <v>33</v>
       </c>
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="101" t="s">
+      <c r="K13" s="99" t="s">
         <v>249</v>
       </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="25">
+      <c r="L13" s="42"/>
+      <c r="M13" s="128">
         <v>1</v>
       </c>
-      <c r="N13" s="64" t="s">
+      <c r="N13" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O13" s="64" t="s">
+      <c r="O13" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="63" t="s">
+      <c r="P13" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="Q13" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R13" s="74" t="s">
+      <c r="Q13" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="72" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="48">
+      <c r="B14" s="47">
         <v>6</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>74</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="61"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="60"/>
       <c r="I14" s="35">
         <v>34</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="K14" s="100" t="s">
+      <c r="K14" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="25">
+      <c r="L14" s="42"/>
+      <c r="M14" s="128">
         <v>33</v>
       </c>
-      <c r="N14" s="64" t="s">
+      <c r="N14" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O14" s="63" t="s">
+      <c r="O14" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="P14" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="63" t="s">
+      <c r="P14" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="39"/>
+      <c r="R14" s="38"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="25">
         <v>7</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="58" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>74</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="61"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="35">
         <v>35</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="92" t="s">
+      <c r="K15" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="25">
+      <c r="L15" s="42"/>
+      <c r="M15" s="128">
         <v>34</v>
       </c>
-      <c r="N15" s="64" t="s">
+      <c r="N15" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O15" s="41" t="s">
+      <c r="O15" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="39"/>
+      <c r="P15" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="38"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="58" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>74</v>
       </c>
       <c r="E16" s="26"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="61"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="35">
         <v>36</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="K16" s="100" t="s">
+      <c r="K16" s="98" t="s">
         <v>251</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="25">
+      <c r="L16" s="42"/>
+      <c r="M16" s="128">
         <v>35</v>
       </c>
-      <c r="N16" s="64" t="s">
+      <c r="N16" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O16" s="64" t="s">
+      <c r="O16" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="P16" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R16" s="39"/>
+      <c r="P16" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="38"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="25">
         <v>9</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="58" t="s">
         <v>54</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="61"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="60"/>
       <c r="I17" s="35">
         <v>37</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="K17" s="100" t="s">
+      <c r="K17" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="25">
+      <c r="L17" s="42"/>
+      <c r="M17" s="128">
         <v>35</v>
       </c>
-      <c r="N17" s="64" t="s">
+      <c r="N17" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O17" s="63" t="s">
+      <c r="O17" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="P17" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="39"/>
+      <c r="P17" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="38"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="25">
         <v>10</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="58" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="26"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="61"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="35">
         <v>38</v>
       </c>
       <c r="J18" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="92" t="s">
+      <c r="K18" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="25">
+      <c r="L18" s="42"/>
+      <c r="M18" s="128">
         <v>36</v>
       </c>
-      <c r="N18" s="64" t="s">
+      <c r="N18" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O18" s="41" t="s">
+      <c r="O18" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="P18" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q18" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="39"/>
+      <c r="P18" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="38"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="48">
+      <c r="B19" s="47">
         <v>11</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="58" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="26"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="61"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="60"/>
       <c r="I19" s="35">
         <v>39</v>
       </c>
       <c r="J19" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="100" t="s">
+      <c r="K19" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="25">
+      <c r="L19" s="42"/>
+      <c r="M19" s="128">
         <v>35</v>
       </c>
-      <c r="N19" s="64" t="s">
+      <c r="N19" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O19" s="41" t="s">
+      <c r="O19" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="P19" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="39"/>
+      <c r="P19" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="38"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="48">
+      <c r="B20" s="47">
         <v>12</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="58" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="26"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="61"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="60"/>
       <c r="I20" s="35">
         <v>40</v>
       </c>
       <c r="J20" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="100" t="s">
+      <c r="K20" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="25">
+      <c r="L20" s="42"/>
+      <c r="M20" s="128">
         <v>37</v>
       </c>
-      <c r="N20" s="64" t="s">
+      <c r="N20" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O20" s="63" t="s">
+      <c r="O20" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="P20" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q20" s="63" t="s">
+      <c r="P20" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R20" s="36"/>
@@ -3651,39 +3770,39 @@
       <c r="B21" s="25">
         <v>13</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="58" t="s">
         <v>58</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>74</v>
       </c>
       <c r="E21" s="26"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="61"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="60"/>
       <c r="I21" s="35">
         <v>41</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="K21" s="100" t="s">
+      <c r="K21" s="98" t="s">
         <v>255</v>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="35">
+      <c r="L21" s="42"/>
+      <c r="M21" s="127">
         <v>35</v>
       </c>
-      <c r="N21" s="64" t="s">
+      <c r="N21" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O21" s="41" t="s">
+      <c r="O21" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="P21" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q21" s="63" t="s">
+      <c r="P21" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R21" s="36"/>
@@ -3692,39 +3811,39 @@
       <c r="B22" s="25">
         <v>14</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="58" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="26"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="61"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="60"/>
       <c r="I22" s="35">
         <v>42</v>
       </c>
       <c r="J22" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="K22" s="92" t="s">
+      <c r="K22" s="90" t="s">
         <v>256</v>
       </c>
-      <c r="L22" s="43"/>
-      <c r="M22" s="35">
+      <c r="L22" s="42"/>
+      <c r="M22" s="127">
         <v>38</v>
       </c>
-      <c r="N22" s="64" t="s">
+      <c r="N22" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O22" s="63" t="s">
+      <c r="O22" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="P22" s="63" t="s">
+      <c r="P22" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="63" t="s">
+      <c r="Q22" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R22" s="36"/>
@@ -3733,39 +3852,39 @@
       <c r="B23" s="25">
         <v>15</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="58" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="26"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="61"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="60"/>
       <c r="I23" s="35">
         <v>43</v>
       </c>
       <c r="J23" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="K23" s="92" t="s">
+      <c r="K23" s="90" t="s">
         <v>257</v>
       </c>
-      <c r="L23" s="43"/>
-      <c r="M23" s="35">
+      <c r="L23" s="42"/>
+      <c r="M23" s="127">
         <v>35</v>
       </c>
-      <c r="N23" s="64" t="s">
+      <c r="N23" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O23" s="63" t="s">
+      <c r="O23" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="P23" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q23" s="63" t="s">
+      <c r="P23" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R23" s="36"/>
@@ -3774,121 +3893,121 @@
       <c r="B24" s="25">
         <v>16</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="58" t="s">
         <v>61</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="26"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="61"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="60"/>
       <c r="I24" s="35">
         <v>44</v>
       </c>
       <c r="J24" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="K24" s="92" t="s">
+      <c r="K24" s="90" t="s">
         <v>258</v>
       </c>
-      <c r="L24" s="43"/>
-      <c r="M24" s="35">
+      <c r="L24" s="42"/>
+      <c r="M24" s="127">
         <v>38</v>
       </c>
-      <c r="N24" s="64" t="s">
+      <c r="N24" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O24" s="63" t="s">
+      <c r="O24" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="63" t="s">
+      <c r="P24" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="63" t="s">
+      <c r="Q24" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R24" s="36"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="48">
+      <c r="B25" s="47">
         <v>17</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="58" t="s">
         <v>62</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="26"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="61"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="60"/>
       <c r="I25" s="35">
         <v>45</v>
       </c>
       <c r="J25" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="K25" s="100" t="s">
+      <c r="K25" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="35">
+      <c r="L25" s="42"/>
+      <c r="M25" s="127">
         <v>35</v>
       </c>
-      <c r="N25" s="64" t="s">
+      <c r="N25" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O25" s="63" t="s">
+      <c r="O25" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="P25" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q25" s="63" t="s">
+      <c r="P25" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R25" s="36"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="48">
+      <c r="B26" s="47">
         <v>18</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="58" t="s">
         <v>63</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="26"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="61"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="60"/>
       <c r="I26" s="35">
         <v>46</v>
       </c>
       <c r="J26" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="K26" s="92" t="s">
+      <c r="K26" s="90" t="s">
         <v>259</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="35">
+      <c r="L26" s="42"/>
+      <c r="M26" s="127">
         <v>38</v>
       </c>
-      <c r="N26" s="64" t="s">
+      <c r="N26" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O26" s="63" t="s">
+      <c r="O26" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="P26" s="63" t="s">
+      <c r="P26" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="63" t="s">
+      <c r="Q26" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R26" s="36"/>
@@ -3897,39 +4016,39 @@
       <c r="B27" s="25">
         <v>19</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>64</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="26"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="61"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="60"/>
       <c r="I27" s="35">
         <v>48</v>
       </c>
       <c r="J27" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="K27" s="92" t="s">
+      <c r="K27" s="90" t="s">
         <v>260</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="35">
+      <c r="L27" s="42"/>
+      <c r="M27" s="127">
         <v>35</v>
       </c>
-      <c r="N27" s="64" t="s">
+      <c r="N27" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O27" s="63" t="s">
+      <c r="O27" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="P27" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q27" s="63" t="s">
+      <c r="P27" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R27" s="36"/>
@@ -3938,39 +4057,39 @@
       <c r="B28" s="25">
         <v>20</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="58" t="s">
         <v>65</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="26"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="61"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="60"/>
       <c r="I28" s="35">
         <v>49</v>
       </c>
       <c r="J28" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="K28" s="100" t="s">
+      <c r="K28" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="L28" s="43"/>
-      <c r="M28" s="35">
+      <c r="L28" s="42"/>
+      <c r="M28" s="127">
         <v>38</v>
       </c>
-      <c r="N28" s="64" t="s">
+      <c r="N28" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O28" s="63" t="s">
+      <c r="O28" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="P28" s="63" t="s">
+      <c r="P28" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="63" t="s">
+      <c r="Q28" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R28" s="36"/>
@@ -3979,39 +4098,39 @@
       <c r="B29" s="25">
         <v>21</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="58" t="s">
         <v>66</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>75</v>
       </c>
       <c r="E29" s="26"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="61"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="60"/>
       <c r="I29" s="35">
         <v>51</v>
       </c>
       <c r="J29" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="K29" s="92" t="s">
+      <c r="K29" s="90" t="s">
         <v>261</v>
       </c>
-      <c r="L29" s="43"/>
-      <c r="M29" s="35">
+      <c r="L29" s="42"/>
+      <c r="M29" s="127">
         <v>35</v>
       </c>
-      <c r="N29" s="64" t="s">
+      <c r="N29" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O29" s="63" t="s">
+      <c r="O29" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="P29" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q29" s="63" t="s">
+      <c r="P29" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R29" s="36"/>
@@ -4020,121 +4139,121 @@
       <c r="B30" s="25">
         <v>22</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="58" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>75</v>
       </c>
       <c r="E30" s="26"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="61"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="60"/>
       <c r="I30" s="35">
         <v>52</v>
       </c>
       <c r="J30" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="K30" s="92" t="s">
+      <c r="K30" s="90" t="s">
         <v>262</v>
       </c>
-      <c r="L30" s="43"/>
-      <c r="M30" s="35">
+      <c r="L30" s="42"/>
+      <c r="M30" s="127">
         <v>38</v>
       </c>
-      <c r="N30" s="64" t="s">
+      <c r="N30" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O30" s="63" t="s">
+      <c r="O30" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="P30" s="63" t="s">
+      <c r="P30" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q30" s="63" t="s">
+      <c r="Q30" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R30" s="36"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="48">
+      <c r="B31" s="47">
         <v>23</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="58" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="26"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="61"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="60"/>
       <c r="I31" s="35">
         <v>56</v>
       </c>
       <c r="J31" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="K31" s="92" t="s">
+      <c r="K31" s="90" t="s">
         <v>263</v>
       </c>
-      <c r="L31" s="43"/>
-      <c r="M31" s="35">
+      <c r="L31" s="42"/>
+      <c r="M31" s="127">
         <v>35</v>
       </c>
-      <c r="N31" s="64" t="s">
+      <c r="N31" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O31" s="63" t="s">
+      <c r="O31" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q31" s="63" t="s">
+      <c r="P31" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R31" s="36"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="48">
+      <c r="B32" s="47">
         <v>24</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="58" t="s">
         <v>69</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="26"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="61"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="60"/>
       <c r="I32" s="35">
         <v>58</v>
       </c>
       <c r="J32" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="K32" s="100" t="s">
+      <c r="K32" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="L32" s="43"/>
-      <c r="M32" s="35">
+      <c r="L32" s="42"/>
+      <c r="M32" s="127">
         <v>38</v>
       </c>
-      <c r="N32" s="64" t="s">
+      <c r="N32" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O32" s="63" t="s">
+      <c r="O32" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="P32" s="63" t="s">
+      <c r="P32" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q32" s="63" t="s">
+      <c r="Q32" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R32" s="36"/>
@@ -4143,39 +4262,39 @@
       <c r="B33" s="25">
         <v>25</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="58" t="s">
         <v>70</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="26"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="61"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="60"/>
       <c r="I33" s="35">
         <v>59</v>
       </c>
       <c r="J33" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="K33" s="92" t="s">
+      <c r="K33" s="90" t="s">
         <v>264</v>
       </c>
-      <c r="L33" s="43"/>
-      <c r="M33" s="35">
+      <c r="L33" s="42"/>
+      <c r="M33" s="127">
         <v>35</v>
       </c>
-      <c r="N33" s="64" t="s">
+      <c r="N33" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O33" s="63" t="s">
+      <c r="O33" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="P33" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q33" s="63" t="s">
+      <c r="P33" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R33" s="36"/>
@@ -4184,39 +4303,39 @@
       <c r="B34" s="25">
         <v>26</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="58" t="s">
         <v>71</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="26"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="61"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="60"/>
       <c r="I34" s="35">
         <v>60</v>
       </c>
       <c r="J34" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="K34" s="92" t="s">
+      <c r="K34" s="90" t="s">
         <v>265</v>
       </c>
-      <c r="L34" s="43"/>
-      <c r="M34" s="35">
+      <c r="L34" s="42"/>
+      <c r="M34" s="127">
         <v>38</v>
       </c>
-      <c r="N34" s="64" t="s">
+      <c r="N34" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O34" s="63" t="s">
+      <c r="O34" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="P34" s="63" t="s">
+      <c r="P34" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="63" t="s">
+      <c r="Q34" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R34" s="36"/>
@@ -4225,80 +4344,80 @@
       <c r="B35" s="25">
         <v>27</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="58" t="s">
         <v>72</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="26"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="61"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="60"/>
       <c r="I35" s="35">
         <v>61</v>
       </c>
       <c r="J35" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="K35" s="100" t="s">
+      <c r="K35" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="L35" s="43"/>
-      <c r="M35" s="35">
+      <c r="L35" s="42"/>
+      <c r="M35" s="127">
         <v>35</v>
       </c>
-      <c r="N35" s="64" t="s">
+      <c r="N35" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O35" s="63" t="s">
+      <c r="O35" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="P35" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q35" s="63" t="s">
+      <c r="P35" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R35" s="36"/>
     </row>
     <row r="36" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="53">
+      <c r="B36" s="52">
         <v>28</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="62"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="61"/>
       <c r="I36" s="35">
         <v>62</v>
       </c>
       <c r="J36" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="K36" s="92" t="s">
+      <c r="K36" s="90" t="s">
         <v>266</v>
       </c>
-      <c r="L36" s="43"/>
-      <c r="M36" s="35">
+      <c r="L36" s="42"/>
+      <c r="M36" s="127">
         <v>38</v>
       </c>
-      <c r="N36" s="64" t="s">
+      <c r="N36" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O36" s="63" t="s">
+      <c r="O36" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="P36" s="63" t="s">
+      <c r="P36" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q36" s="63" t="s">
+      <c r="Q36" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R36" s="36"/>
@@ -4310,23 +4429,23 @@
       <c r="J37" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="K37" s="92" t="s">
+      <c r="K37" s="90" t="s">
         <v>267</v>
       </c>
-      <c r="L37" s="43"/>
-      <c r="M37" s="35">
+      <c r="L37" s="42"/>
+      <c r="M37" s="127">
         <v>35</v>
       </c>
-      <c r="N37" s="64" t="s">
+      <c r="N37" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O37" s="63" t="s">
+      <c r="O37" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="P37" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q37" s="63" t="s">
+      <c r="P37" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R37" s="36"/>
@@ -4338,23 +4457,23 @@
       <c r="J38" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="K38" s="100" t="s">
+      <c r="K38" s="98" t="s">
         <v>246</v>
       </c>
-      <c r="L38" s="43"/>
-      <c r="M38" s="35">
+      <c r="L38" s="42"/>
+      <c r="M38" s="127">
         <v>38</v>
       </c>
-      <c r="N38" s="64" t="s">
+      <c r="N38" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O38" s="63" t="s">
+      <c r="O38" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="P38" s="63" t="s">
+      <c r="P38" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="63" t="s">
+      <c r="Q38" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R38" s="36"/>
@@ -4366,23 +4485,23 @@
       <c r="J39" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="K39" s="92" t="s">
+      <c r="K39" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="L39" s="43"/>
-      <c r="M39" s="35">
+      <c r="L39" s="42"/>
+      <c r="M39" s="127">
         <v>35</v>
       </c>
-      <c r="N39" s="64" t="s">
+      <c r="N39" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O39" s="63" t="s">
+      <c r="O39" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="P39" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q39" s="63" t="s">
+      <c r="P39" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R39" s="36"/>
@@ -4391,254 +4510,254 @@
       <c r="I40" s="34">
         <v>67</v>
       </c>
-      <c r="J40" s="47" t="s">
+      <c r="J40" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="K40" s="102" t="s">
+      <c r="K40" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="L40" s="43"/>
-      <c r="M40" s="35">
+      <c r="L40" s="42"/>
+      <c r="M40" s="127">
         <v>38</v>
       </c>
-      <c r="N40" s="64" t="s">
+      <c r="N40" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O40" s="63" t="s">
+      <c r="O40" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="P40" s="63" t="s">
+      <c r="P40" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="63" t="s">
+      <c r="Q40" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R40" s="36"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L41" s="43"/>
-      <c r="M41" s="48">
+      <c r="L41" s="42"/>
+      <c r="M41" s="126">
         <v>39</v>
       </c>
-      <c r="N41" s="64" t="s">
+      <c r="N41" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O41" s="41" t="s">
+      <c r="O41" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="P41" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q41" s="63" t="s">
+      <c r="P41" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R41" s="36"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L42" s="43"/>
-      <c r="M42" s="35">
+      <c r="L42" s="42"/>
+      <c r="M42" s="127">
         <v>40</v>
       </c>
-      <c r="N42" s="64" t="s">
+      <c r="N42" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O42" s="63" t="s">
+      <c r="O42" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="P42" s="63" t="s">
+      <c r="P42" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="63" t="s">
+      <c r="Q42" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R42" s="36"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L43" s="43"/>
-      <c r="M43" s="35">
+      <c r="L43" s="42"/>
+      <c r="M43" s="127">
         <v>35</v>
       </c>
-      <c r="N43" s="64" t="s">
+      <c r="N43" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O43" s="41" t="s">
+      <c r="O43" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="P43" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q43" s="63" t="s">
+      <c r="P43" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q43" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R43" s="36"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L44" s="43"/>
-      <c r="M44" s="35">
+      <c r="L44" s="42"/>
+      <c r="M44" s="127">
         <v>38</v>
       </c>
-      <c r="N44" s="64" t="s">
+      <c r="N44" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O44" s="63" t="s">
+      <c r="O44" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="P44" s="63" t="s">
+      <c r="P44" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q44" s="63" t="s">
+      <c r="Q44" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R44" s="36"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L45" s="43"/>
-      <c r="M45" s="35">
+      <c r="L45" s="42"/>
+      <c r="M45" s="127">
         <v>35</v>
       </c>
-      <c r="N45" s="64" t="s">
+      <c r="N45" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O45" s="63" t="s">
+      <c r="O45" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="P45" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q45" s="63" t="s">
+      <c r="P45" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R45" s="36"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L46" s="43"/>
-      <c r="M46" s="35">
+      <c r="L46" s="42"/>
+      <c r="M46" s="127">
         <v>41</v>
       </c>
-      <c r="N46" s="64" t="s">
+      <c r="N46" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O46" s="41" t="s">
+      <c r="O46" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="P46" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q46" s="63" t="s">
+      <c r="P46" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q46" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R46" s="36"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L47" s="43"/>
-      <c r="M47" s="35">
+      <c r="L47" s="42"/>
+      <c r="M47" s="127">
         <v>35</v>
       </c>
-      <c r="N47" s="64" t="s">
+      <c r="N47" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O47" s="41" t="s">
+      <c r="O47" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="P47" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q47" s="63" t="s">
+      <c r="P47" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q47" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R47" s="36"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L48" s="43"/>
-      <c r="M48" s="35">
+      <c r="L48" s="42"/>
+      <c r="M48" s="127">
         <v>38</v>
       </c>
-      <c r="N48" s="64" t="s">
+      <c r="N48" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O48" s="63" t="s">
+      <c r="O48" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="P48" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q48" s="63" t="s">
+      <c r="P48" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q48" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R48" s="36"/>
     </row>
     <row r="49" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L49" s="43"/>
-      <c r="M49" s="35">
+      <c r="L49" s="42"/>
+      <c r="M49" s="127">
         <v>38</v>
       </c>
-      <c r="N49" s="64" t="s">
+      <c r="N49" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O49" s="63" t="s">
+      <c r="O49" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="P49" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q49" s="63" t="s">
+      <c r="P49" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R49" s="36"/>
     </row>
     <row r="50" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L50" s="43"/>
-      <c r="M50" s="35">
+      <c r="L50" s="42"/>
+      <c r="M50" s="127">
         <v>35</v>
       </c>
-      <c r="N50" s="64" t="s">
+      <c r="N50" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O50" s="63" t="s">
+      <c r="O50" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="P50" s="63" t="s">
+      <c r="P50" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q50" s="63" t="s">
+      <c r="Q50" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R50" s="36"/>
     </row>
     <row r="51" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L51" s="43"/>
-      <c r="M51" s="35">
+      <c r="L51" s="42"/>
+      <c r="M51" s="127">
         <v>38</v>
       </c>
-      <c r="N51" s="64" t="s">
+      <c r="N51" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O51" s="63" t="s">
+      <c r="O51" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="P51" s="63" t="s">
+      <c r="P51" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="Q51" s="63" t="s">
+      <c r="Q51" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R51" s="36"/>
     </row>
     <row r="52" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L52" s="43"/>
-      <c r="M52" s="48">
+      <c r="L52" s="42"/>
+      <c r="M52" s="126">
         <v>11</v>
       </c>
-      <c r="N52" s="64" t="s">
+      <c r="N52" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O52" s="63" t="s">
+      <c r="O52" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="P52" s="63" t="s">
+      <c r="P52" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q52" s="63" t="s">
+      <c r="Q52" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R52" s="36" t="s">
@@ -4646,364 +4765,364 @@
       </c>
     </row>
     <row r="53" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L53" s="43"/>
-      <c r="M53" s="35">
+      <c r="L53" s="42"/>
+      <c r="M53" s="127">
         <v>12</v>
       </c>
-      <c r="N53" s="64" t="s">
+      <c r="N53" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O53" s="41" t="s">
+      <c r="O53" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="P53" s="63" t="s">
+      <c r="P53" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q53" s="63" t="s">
+      <c r="Q53" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R53" s="36"/>
     </row>
     <row r="54" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L54" s="43"/>
-      <c r="M54" s="73">
+      <c r="L54" s="42"/>
+      <c r="M54" s="130">
         <v>38</v>
       </c>
-      <c r="N54" s="71" t="s">
+      <c r="N54" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="O54" s="66" t="s">
+      <c r="O54" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="P54" s="66" t="s">
+      <c r="P54" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Q54" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="R54" s="67"/>
+      <c r="Q54" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="R54" s="66"/>
     </row>
     <row r="55" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L55" s="43"/>
-      <c r="M55" s="35">
+      <c r="L55" s="42"/>
+      <c r="M55" s="127">
         <v>38</v>
       </c>
-      <c r="N55" s="64" t="s">
+      <c r="N55" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O55" s="41" t="s">
+      <c r="O55" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="P55" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q55" s="63" t="s">
+      <c r="P55" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q55" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R55" s="36"/>
     </row>
     <row r="56" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L56" s="43"/>
-      <c r="M56" s="35">
+      <c r="L56" s="42"/>
+      <c r="M56" s="127">
         <v>16</v>
       </c>
-      <c r="N56" s="64" t="s">
+      <c r="N56" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O56" s="63" t="s">
+      <c r="O56" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="P56" s="63" t="s">
+      <c r="P56" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q56" s="63" t="s">
+      <c r="Q56" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R56" s="36"/>
     </row>
     <row r="57" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L57" s="43"/>
-      <c r="M57" s="35">
+      <c r="L57" s="42"/>
+      <c r="M57" s="127">
         <v>38</v>
       </c>
-      <c r="N57" s="64" t="s">
+      <c r="N57" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O57" s="41" t="s">
+      <c r="O57" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="P57" s="63" t="s">
+      <c r="P57" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q57" s="63" t="s">
+      <c r="Q57" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R57" s="36"/>
     </row>
     <row r="58" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L58" s="43"/>
-      <c r="M58" s="35">
+      <c r="L58" s="42"/>
+      <c r="M58" s="127">
         <v>38</v>
       </c>
-      <c r="N58" s="64" t="s">
+      <c r="N58" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O58" s="63" t="s">
+      <c r="O58" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="P58" s="63" t="s">
+      <c r="P58" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q58" s="63" t="s">
+      <c r="Q58" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R58" s="36"/>
     </row>
     <row r="59" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L59" s="43"/>
-      <c r="M59" s="35">
+      <c r="L59" s="42"/>
+      <c r="M59" s="127">
         <v>38</v>
       </c>
-      <c r="N59" s="64" t="s">
+      <c r="N59" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O59" s="63" t="s">
+      <c r="O59" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="P59" s="63" t="s">
+      <c r="P59" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q59" s="63" t="s">
+      <c r="Q59" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R59" s="36"/>
     </row>
     <row r="60" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L60" s="43"/>
-      <c r="M60" s="35">
+      <c r="L60" s="42"/>
+      <c r="M60" s="127">
         <v>42</v>
       </c>
-      <c r="N60" s="64" t="s">
+      <c r="N60" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O60" s="63" t="s">
+      <c r="O60" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="P60" s="63" t="s">
+      <c r="P60" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="Q60" s="63" t="s">
+      <c r="Q60" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R60" s="36"/>
     </row>
     <row r="61" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L61" s="43"/>
-      <c r="M61" s="35">
+      <c r="L61" s="42"/>
+      <c r="M61" s="127">
         <v>38</v>
       </c>
-      <c r="N61" s="64" t="s">
+      <c r="N61" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O61" s="63" t="s">
+      <c r="O61" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="P61" s="63" t="s">
+      <c r="P61" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q61" s="63" t="s">
+      <c r="Q61" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R61" s="36"/>
     </row>
     <row r="62" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L62" s="43"/>
-      <c r="M62" s="35">
+      <c r="L62" s="42"/>
+      <c r="M62" s="127">
         <v>23</v>
       </c>
-      <c r="N62" s="64" t="s">
+      <c r="N62" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O62" s="41" t="s">
+      <c r="O62" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="P62" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q62" s="63" t="s">
+      <c r="P62" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q62" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R62" s="36"/>
     </row>
     <row r="63" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L63" s="43"/>
-      <c r="M63" s="35">
+      <c r="L63" s="42"/>
+      <c r="M63" s="127">
         <v>38</v>
       </c>
-      <c r="N63" s="64" t="s">
+      <c r="N63" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O63" s="63" t="s">
+      <c r="O63" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="P63" s="63" t="s">
+      <c r="P63" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Q63" s="63" t="s">
+      <c r="Q63" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R63" s="36"/>
     </row>
     <row r="64" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L64" s="43"/>
-      <c r="M64" s="35">
+      <c r="L64" s="42"/>
+      <c r="M64" s="127">
         <v>43</v>
       </c>
-      <c r="N64" s="64" t="s">
+      <c r="N64" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O64" s="63" t="s">
+      <c r="O64" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="P64" s="63" t="s">
+      <c r="P64" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q64" s="63" t="s">
+      <c r="Q64" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R64" s="36"/>
     </row>
     <row r="65" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L65" s="43"/>
-      <c r="M65" s="35">
+      <c r="L65" s="42"/>
+      <c r="M65" s="127">
         <v>44</v>
       </c>
-      <c r="N65" s="64" t="s">
+      <c r="N65" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O65" s="63" t="s">
+      <c r="O65" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="P65" s="63" t="s">
+      <c r="P65" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q65" s="63" t="s">
+      <c r="Q65" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R65" s="36"/>
     </row>
     <row r="66" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L66" s="43"/>
-      <c r="M66" s="35">
+      <c r="L66" s="42"/>
+      <c r="M66" s="127">
         <v>45</v>
       </c>
-      <c r="N66" s="64" t="s">
+      <c r="N66" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O66" s="63" t="s">
+      <c r="O66" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="P66" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q66" s="63" t="s">
+      <c r="P66" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q66" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R66" s="36"/>
     </row>
-    <row r="67" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L67" s="62"/>
-      <c r="M67" s="77">
+    <row r="67" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L67" s="42"/>
+      <c r="M67" s="125">
         <v>38</v>
       </c>
-      <c r="N67" s="145" t="s">
+      <c r="N67" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="O67" s="145" t="s">
+      <c r="O67" s="124" t="s">
         <v>296</v>
       </c>
-      <c r="P67" s="145" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q67" s="145" t="s">
-        <v>21</v>
-      </c>
-      <c r="R67" s="79"/>
+      <c r="P67" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q67" s="124" t="s">
+        <v>21</v>
+      </c>
+      <c r="R67" s="77"/>
     </row>
     <row r="68" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L68" s="43"/>
-      <c r="M68" s="35">
+      <c r="L68" s="42"/>
+      <c r="M68" s="127">
         <v>7</v>
       </c>
-      <c r="N68" s="64" t="s">
+      <c r="N68" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="O68" s="63" t="s">
+      <c r="O68" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="P68" s="63" t="s">
+      <c r="P68" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="Q68" s="63" t="s">
+      <c r="Q68" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R68" s="36"/>
     </row>
     <row r="69" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L69" s="44"/>
-      <c r="M69" s="77">
+      <c r="L69" s="43"/>
+      <c r="M69" s="125">
         <v>38</v>
       </c>
-      <c r="N69" s="78" t="s">
+      <c r="N69" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="O69" s="78" t="s">
+      <c r="O69" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="P69" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q69" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="R69" s="79"/>
+      <c r="P69" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q69" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="R69" s="77"/>
     </row>
     <row r="70" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L70" s="83"/>
-      <c r="M70" s="68">
+      <c r="L70" s="42"/>
+      <c r="M70" s="67">
         <v>29</v>
       </c>
       <c r="N70" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="O70" s="65" t="s">
+      <c r="O70" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="P70" s="65" t="s">
+      <c r="P70" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="Q70" s="65" t="s">
+      <c r="Q70" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="R70" s="80" t="s">
+      <c r="R70" s="78" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="71" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L71" s="43"/>
+      <c r="L71" s="42"/>
       <c r="M71" s="35">
         <v>43</v>
       </c>
-      <c r="N71" s="41" t="s">
+      <c r="N71" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="O71" s="63" t="s">
+      <c r="O71" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="P71" s="63" t="s">
+      <c r="P71" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q71" s="63" t="s">
+      <c r="Q71" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R71" s="36" t="s">
@@ -5011,20 +5130,20 @@
       </c>
     </row>
     <row r="72" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L72" s="43"/>
+      <c r="L72" s="42"/>
       <c r="M72" s="35">
         <v>46</v>
       </c>
-      <c r="N72" s="41" t="s">
+      <c r="N72" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="O72" s="63" t="s">
+      <c r="O72" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="P72" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q72" s="63" t="s">
+      <c r="P72" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q72" s="62" t="s">
         <v>18</v>
       </c>
       <c r="R72" s="36" t="s">
@@ -5032,554 +5151,554 @@
       </c>
     </row>
     <row r="73" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L73" s="43"/>
+      <c r="L73" s="42"/>
       <c r="M73" s="35">
         <v>35</v>
       </c>
-      <c r="N73" s="41" t="s">
+      <c r="N73" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="O73" s="63" t="s">
+      <c r="O73" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="P73" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q73" s="63" t="s">
+      <c r="P73" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q73" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R73" s="36"/>
     </row>
     <row r="74" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L74" s="43"/>
+      <c r="L74" s="42"/>
       <c r="M74" s="35">
         <v>48</v>
       </c>
-      <c r="N74" s="41" t="s">
+      <c r="N74" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="O74" s="63" t="s">
+      <c r="O74" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="P74" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q74" s="63" t="s">
+      <c r="P74" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q74" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R74" s="36"/>
     </row>
     <row r="75" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L75" s="43"/>
+      <c r="L75" s="42"/>
       <c r="M75" s="35">
         <v>35</v>
       </c>
-      <c r="N75" s="41" t="s">
+      <c r="N75" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="O75" s="63" t="s">
+      <c r="O75" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="P75" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q75" s="63" t="s">
+      <c r="P75" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q75" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R75" s="36"/>
     </row>
     <row r="76" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L76" s="43"/>
+      <c r="L76" s="42"/>
       <c r="M76" s="35">
         <v>35</v>
       </c>
-      <c r="N76" s="41" t="s">
+      <c r="N76" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="O76" s="63" t="s">
+      <c r="O76" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="P76" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q76" s="63" t="s">
+      <c r="P76" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q76" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R76" s="36"/>
     </row>
     <row r="77" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L77" s="43"/>
+      <c r="L77" s="42"/>
       <c r="M77" s="35">
         <v>35</v>
       </c>
-      <c r="N77" s="41" t="s">
+      <c r="N77" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="O77" s="63" t="s">
+      <c r="O77" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="P77" s="63" t="s">
+      <c r="P77" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q77" s="63" t="s">
+      <c r="Q77" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R77" s="36"/>
     </row>
     <row r="78" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L78" s="43"/>
+      <c r="L78" s="42"/>
       <c r="M78" s="35">
         <v>35</v>
       </c>
-      <c r="N78" s="41" t="s">
+      <c r="N78" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="O78" s="63" t="s">
+      <c r="O78" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="P78" s="63" t="s">
+      <c r="P78" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q78" s="63" t="s">
+      <c r="Q78" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R78" s="36"/>
     </row>
     <row r="79" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L79" s="43"/>
-      <c r="M79" s="48">
+      <c r="L79" s="42"/>
+      <c r="M79" s="47">
         <v>49</v>
       </c>
-      <c r="N79" s="41" t="s">
+      <c r="N79" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="O79" s="63" t="s">
+      <c r="O79" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="P79" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q79" s="63" t="s">
+      <c r="P79" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q79" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R79" s="36"/>
     </row>
     <row r="80" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L80" s="43"/>
+      <c r="L80" s="42"/>
       <c r="M80" s="35">
         <v>45</v>
       </c>
-      <c r="N80" s="41" t="s">
+      <c r="N80" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="O80" s="63" t="s">
+      <c r="O80" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="P80" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q80" s="63" t="s">
+      <c r="P80" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q80" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R80" s="36"/>
     </row>
     <row r="81" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L81" s="43"/>
+      <c r="L81" s="42"/>
       <c r="M81" s="35">
         <v>7</v>
       </c>
-      <c r="N81" s="41" t="s">
+      <c r="N81" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="O81" s="63" t="s">
+      <c r="O81" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="P81" s="63" t="s">
+      <c r="P81" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="Q81" s="63" t="s">
+      <c r="Q81" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R81" s="36"/>
     </row>
     <row r="82" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L82" s="44"/>
-      <c r="M82" s="77">
+      <c r="L82" s="43"/>
+      <c r="M82" s="75">
         <v>44</v>
       </c>
-      <c r="N82" s="81" t="s">
+      <c r="N82" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="O82" s="82" t="s">
+      <c r="O82" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="P82" s="82" t="s">
+      <c r="P82" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="Q82" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="R82" s="79"/>
+      <c r="Q82" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="R82" s="77"/>
     </row>
     <row r="83" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L83" s="83"/>
-      <c r="M83" s="68">
+      <c r="L83" s="81"/>
+      <c r="M83" s="67">
         <v>29</v>
       </c>
       <c r="N83" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="O83" s="65" t="s">
+      <c r="O83" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="P83" s="65" t="s">
+      <c r="P83" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="Q83" s="65" t="s">
+      <c r="Q83" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="R83" s="80" t="s">
+      <c r="R83" s="78" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="84" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L84" s="43"/>
+      <c r="L84" s="42"/>
       <c r="M84" s="35">
         <v>35</v>
       </c>
-      <c r="N84" s="41" t="s">
+      <c r="N84" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O84" s="63" t="s">
+      <c r="O84" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="P84" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q84" s="63" t="s">
+      <c r="P84" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q84" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R84" s="36"/>
     </row>
     <row r="85" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L85" s="43"/>
+      <c r="L85" s="42"/>
       <c r="M85" s="35">
         <v>38</v>
       </c>
-      <c r="N85" s="41" t="s">
+      <c r="N85" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O85" s="63" t="s">
+      <c r="O85" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="P85" s="63" t="s">
+      <c r="P85" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q85" s="63" t="s">
+      <c r="Q85" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R85" s="36"/>
     </row>
     <row r="86" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L86" s="43"/>
+      <c r="L86" s="42"/>
       <c r="M86" s="35">
         <v>51</v>
       </c>
-      <c r="N86" s="41" t="s">
+      <c r="N86" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O86" s="41" t="s">
+      <c r="O86" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="P86" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q86" s="63" t="s">
+      <c r="P86" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q86" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R86" s="36"/>
     </row>
     <row r="87" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L87" s="43"/>
+      <c r="L87" s="42"/>
       <c r="M87" s="35">
         <v>38</v>
       </c>
-      <c r="N87" s="41" t="s">
+      <c r="N87" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O87" s="41" t="s">
+      <c r="O87" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="P87" s="63" t="s">
+      <c r="P87" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q87" s="63" t="s">
+      <c r="Q87" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R87" s="36"/>
     </row>
     <row r="88" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L88" s="43"/>
+      <c r="L88" s="42"/>
       <c r="M88" s="35">
         <v>35</v>
       </c>
-      <c r="N88" s="41" t="s">
+      <c r="N88" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O88" s="63" t="s">
+      <c r="O88" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="P88" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q88" s="63" t="s">
+      <c r="P88" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q88" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R88" s="36"/>
     </row>
     <row r="89" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L89" s="43"/>
+      <c r="L89" s="42"/>
       <c r="M89" s="35">
         <v>38</v>
       </c>
-      <c r="N89" s="41" t="s">
+      <c r="N89" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O89" s="63" t="s">
+      <c r="O89" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="P89" s="63" t="s">
+      <c r="P89" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q89" s="63" t="s">
+      <c r="Q89" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R89" s="36"/>
     </row>
     <row r="90" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L90" s="43"/>
+      <c r="L90" s="42"/>
       <c r="M90" s="35">
         <v>35</v>
       </c>
-      <c r="N90" s="41" t="s">
+      <c r="N90" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O90" s="63" t="s">
+      <c r="O90" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="P90" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q90" s="63" t="s">
+      <c r="P90" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q90" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R90" s="36"/>
     </row>
     <row r="91" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L91" s="43"/>
+      <c r="L91" s="42"/>
       <c r="M91" s="35">
         <v>38</v>
       </c>
-      <c r="N91" s="41" t="s">
+      <c r="N91" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O91" s="63" t="s">
+      <c r="O91" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="P91" s="63" t="s">
+      <c r="P91" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q91" s="63" t="s">
+      <c r="Q91" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R91" s="36"/>
     </row>
     <row r="92" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L92" s="43"/>
+      <c r="L92" s="42"/>
       <c r="M92" s="35">
         <v>35</v>
       </c>
-      <c r="N92" s="41" t="s">
+      <c r="N92" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O92" s="63" t="s">
+      <c r="O92" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="P92" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q92" s="63" t="s">
+      <c r="P92" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q92" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R92" s="36"/>
     </row>
     <row r="93" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L93" s="43"/>
+      <c r="L93" s="42"/>
       <c r="M93" s="35">
         <v>38</v>
       </c>
-      <c r="N93" s="41" t="s">
+      <c r="N93" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O93" s="63" t="s">
+      <c r="O93" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="P93" s="63" t="s">
+      <c r="P93" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q93" s="63" t="s">
+      <c r="Q93" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R93" s="36"/>
     </row>
     <row r="94" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L94" s="43"/>
+      <c r="L94" s="42"/>
       <c r="M94" s="35">
         <v>35</v>
       </c>
-      <c r="N94" s="41" t="s">
+      <c r="N94" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O94" s="63" t="s">
+      <c r="O94" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="P94" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q94" s="63" t="s">
+      <c r="P94" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q94" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R94" s="36"/>
     </row>
     <row r="95" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L95" s="43"/>
+      <c r="L95" s="42"/>
       <c r="M95" s="35">
         <v>35</v>
       </c>
-      <c r="N95" s="41" t="s">
+      <c r="N95" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O95" s="63" t="s">
+      <c r="O95" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="P95" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q95" s="63" t="s">
+      <c r="P95" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q95" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R95" s="36"/>
     </row>
     <row r="96" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L96" s="43"/>
+      <c r="L96" s="42"/>
       <c r="M96" s="35">
         <v>38</v>
       </c>
-      <c r="N96" s="41" t="s">
+      <c r="N96" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O96" s="63" t="s">
+      <c r="O96" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="P96" s="63" t="s">
+      <c r="P96" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q96" s="63" t="s">
+      <c r="Q96" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R96" s="36"/>
     </row>
     <row r="97" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L97" s="43"/>
+      <c r="L97" s="42"/>
       <c r="M97" s="35">
         <v>35</v>
       </c>
-      <c r="N97" s="41" t="s">
+      <c r="N97" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O97" s="63" t="s">
+      <c r="O97" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="P97" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q97" s="63" t="s">
+      <c r="P97" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q97" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R97" s="36"/>
     </row>
     <row r="98" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L98" s="43"/>
+      <c r="L98" s="42"/>
       <c r="M98" s="35">
         <v>38</v>
       </c>
-      <c r="N98" s="41" t="s">
+      <c r="N98" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O98" s="63" t="s">
+      <c r="O98" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="P98" s="63" t="s">
+      <c r="P98" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q98" s="63" t="s">
+      <c r="Q98" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R98" s="36"/>
     </row>
     <row r="99" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L99" s="43"/>
+      <c r="L99" s="42"/>
       <c r="M99" s="35">
         <v>35</v>
       </c>
-      <c r="N99" s="41" t="s">
+      <c r="N99" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O99" s="63" t="s">
+      <c r="O99" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="P99" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q99" s="63" t="s">
+      <c r="P99" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q99" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R99" s="36"/>
     </row>
     <row r="100" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L100" s="43"/>
+      <c r="L100" s="42"/>
       <c r="M100" s="35">
         <v>38</v>
       </c>
-      <c r="N100" s="41" t="s">
+      <c r="N100" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O100" s="63" t="s">
+      <c r="O100" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="P100" s="63" t="s">
+      <c r="P100" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q100" s="63" t="s">
+      <c r="Q100" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R100" s="36"/>
     </row>
     <row r="101" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L101" s="43"/>
-      <c r="M101" s="48">
+      <c r="L101" s="42"/>
+      <c r="M101" s="47">
         <v>52</v>
       </c>
-      <c r="N101" s="41" t="s">
+      <c r="N101" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O101" s="41" t="s">
+      <c r="O101" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="P101" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q101" s="63" t="s">
+      <c r="P101" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q101" s="62" t="s">
         <v>18</v>
       </c>
       <c r="R101" s="36" t="s">
@@ -5587,981 +5706,1095 @@
       </c>
     </row>
     <row r="102" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L102" s="43"/>
+      <c r="L102" s="42"/>
       <c r="M102" s="35">
         <v>35</v>
       </c>
-      <c r="N102" s="41" t="s">
+      <c r="N102" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O102" s="63" t="s">
+      <c r="O102" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="P102" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q102" s="63" t="s">
+      <c r="P102" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q102" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R102" s="36"/>
     </row>
     <row r="103" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L103" s="43"/>
+      <c r="L103" s="42"/>
       <c r="M103" s="35">
         <v>38</v>
       </c>
-      <c r="N103" s="41" t="s">
+      <c r="N103" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O103" s="63" t="s">
+      <c r="O103" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="P103" s="63" t="s">
+      <c r="P103" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q103" s="63" t="s">
+      <c r="Q103" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R103" s="36"/>
     </row>
     <row r="104" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L104" s="43"/>
+      <c r="L104" s="42"/>
       <c r="M104" s="35">
         <v>35</v>
       </c>
-      <c r="N104" s="41" t="s">
+      <c r="N104" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O104" s="63" t="s">
+      <c r="O104" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="P104" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q104" s="63" t="s">
+      <c r="P104" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q104" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R104" s="36"/>
     </row>
     <row r="105" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L105" s="43"/>
+      <c r="L105" s="42"/>
       <c r="M105" s="35">
         <v>38</v>
       </c>
-      <c r="N105" s="41" t="s">
+      <c r="N105" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O105" s="63" t="s">
+      <c r="O105" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="P105" s="63" t="s">
+      <c r="P105" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q105" s="63" t="s">
+      <c r="Q105" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R105" s="36"/>
     </row>
     <row r="106" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L106" s="43"/>
+      <c r="L106" s="42"/>
       <c r="M106" s="35">
         <v>35</v>
       </c>
-      <c r="N106" s="41" t="s">
+      <c r="N106" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O106" s="63" t="s">
+      <c r="O106" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="P106" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q106" s="63" t="s">
+      <c r="P106" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q106" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R106" s="36"/>
     </row>
     <row r="107" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L107" s="43"/>
+      <c r="L107" s="42"/>
       <c r="M107" s="35">
         <v>35</v>
       </c>
-      <c r="N107" s="41" t="s">
+      <c r="N107" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O107" s="63" t="s">
+      <c r="O107" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="P107" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q107" s="63" t="s">
+      <c r="P107" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q107" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R107" s="36"/>
     </row>
     <row r="108" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L108" s="43"/>
+      <c r="L108" s="42"/>
       <c r="M108" s="35">
         <v>35</v>
       </c>
-      <c r="N108" s="41" t="s">
+      <c r="N108" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O108" s="63" t="s">
+      <c r="O108" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="P108" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q108" s="63" t="s">
+      <c r="P108" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q108" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R108" s="36"/>
     </row>
     <row r="109" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L109" s="43"/>
+      <c r="L109" s="42"/>
       <c r="M109" s="35">
         <v>38</v>
       </c>
-      <c r="N109" s="41" t="s">
+      <c r="N109" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O109" s="63" t="s">
+      <c r="O109" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="P109" s="63" t="s">
+      <c r="P109" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q109" s="63" t="s">
+      <c r="Q109" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R109" s="36"/>
     </row>
     <row r="110" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L110" s="43"/>
+      <c r="L110" s="42"/>
       <c r="M110" s="35">
         <v>35</v>
       </c>
-      <c r="N110" s="41" t="s">
+      <c r="N110" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O110" s="63" t="s">
+      <c r="O110" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="P110" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q110" s="63" t="s">
+      <c r="P110" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q110" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R110" s="36"/>
     </row>
     <row r="111" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L111" s="43"/>
+      <c r="L111" s="42"/>
       <c r="M111" s="35">
         <v>38</v>
       </c>
-      <c r="N111" s="41" t="s">
+      <c r="N111" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O111" s="63" t="s">
+      <c r="O111" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="P111" s="63" t="s">
+      <c r="P111" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q111" s="63" t="s">
+      <c r="Q111" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R111" s="36"/>
     </row>
     <row r="112" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L112" s="43"/>
+      <c r="L112" s="42"/>
       <c r="M112" s="35">
         <v>14</v>
       </c>
-      <c r="N112" s="41" t="s">
+      <c r="N112" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O112" s="41" t="s">
+      <c r="O112" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="P112" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q112" s="63" t="s">
+      <c r="P112" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q112" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R112" s="36"/>
     </row>
     <row r="113" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L113" s="43"/>
-      <c r="M113" s="88">
+      <c r="L113" s="42"/>
+      <c r="M113" s="86">
         <v>67</v>
       </c>
-      <c r="N113" s="89" t="s">
+      <c r="N113" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="O113" s="89" t="s">
+      <c r="O113" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="P113" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q113" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="R113" s="91"/>
+      <c r="P113" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q113" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="R113" s="89"/>
     </row>
     <row r="114" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L114" s="43"/>
-      <c r="M114" s="93">
+      <c r="L114" s="42"/>
+      <c r="M114" s="91">
         <v>67</v>
       </c>
-      <c r="N114" s="89" t="s">
+      <c r="N114" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="O114" s="90" t="s">
+      <c r="O114" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="P114" s="90" t="s">
+      <c r="P114" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="Q114" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="R114" s="91"/>
+      <c r="Q114" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="R114" s="89"/>
     </row>
     <row r="115" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L115" s="43"/>
+      <c r="L115" s="42"/>
       <c r="M115" s="35">
         <v>38</v>
       </c>
-      <c r="N115" s="41" t="s">
+      <c r="N115" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O115" s="63" t="s">
+      <c r="O115" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="P115" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q115" s="63" t="s">
+      <c r="P115" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q115" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R115" s="36"/>
     </row>
     <row r="116" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L116" s="43"/>
+      <c r="L116" s="42"/>
       <c r="M116" s="35">
         <v>11</v>
       </c>
-      <c r="N116" s="41" t="s">
+      <c r="N116" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O116" s="63" t="s">
+      <c r="O116" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="P116" s="63" t="s">
+      <c r="P116" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q116" s="63" t="s">
+      <c r="Q116" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R116" s="36"/>
     </row>
     <row r="117" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L117" s="43"/>
+      <c r="L117" s="42"/>
       <c r="M117" s="35">
         <v>38</v>
       </c>
-      <c r="N117" s="41" t="s">
+      <c r="N117" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O117" s="63" t="s">
+      <c r="O117" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="P117" s="63" t="s">
+      <c r="P117" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q117" s="63" t="s">
+      <c r="Q117" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R117" s="36"/>
     </row>
     <row r="118" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L118" s="43"/>
+      <c r="L118" s="42"/>
       <c r="M118" s="35">
         <v>38</v>
       </c>
-      <c r="N118" s="41" t="s">
+      <c r="N118" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O118" s="63" t="s">
+      <c r="O118" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="P118" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q118" s="63" t="s">
+      <c r="P118" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q118" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R118" s="36"/>
     </row>
     <row r="119" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L119" s="43"/>
+      <c r="L119" s="42"/>
       <c r="M119" s="35">
         <v>38</v>
       </c>
-      <c r="N119" s="41" t="s">
+      <c r="N119" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O119" s="63" t="s">
+      <c r="O119" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="P119" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q119" s="63" t="s">
+      <c r="P119" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q119" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R119" s="36"/>
     </row>
     <row r="120" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L120" s="43"/>
+      <c r="L120" s="42"/>
       <c r="M120" s="35">
         <v>38</v>
       </c>
-      <c r="N120" s="41" t="s">
+      <c r="N120" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O120" s="63" t="s">
+      <c r="O120" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="P120" s="63" t="s">
+      <c r="P120" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q120" s="63" t="s">
+      <c r="Q120" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R120" s="36"/>
     </row>
     <row r="121" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L121" s="43"/>
+      <c r="L121" s="42"/>
       <c r="M121" s="35">
         <v>38</v>
       </c>
-      <c r="N121" s="41" t="s">
+      <c r="N121" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O121" s="63" t="s">
+      <c r="O121" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="P121" s="63" t="s">
+      <c r="P121" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="Q121" s="63" t="s">
+      <c r="Q121" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R121" s="36"/>
     </row>
     <row r="122" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L122" s="43"/>
+      <c r="L122" s="42"/>
       <c r="M122" s="35">
         <v>38</v>
       </c>
-      <c r="N122" s="41" t="s">
+      <c r="N122" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O122" s="63" t="s">
+      <c r="O122" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="P122" s="63" t="s">
+      <c r="P122" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="Q122" s="63" t="s">
+      <c r="Q122" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R122" s="36"/>
     </row>
     <row r="123" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L123" s="43"/>
+      <c r="L123" s="42"/>
       <c r="M123" s="35">
         <v>35</v>
       </c>
-      <c r="N123" s="41" t="s">
+      <c r="N123" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O123" s="63" t="s">
+      <c r="O123" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="P123" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q123" s="63" t="s">
+      <c r="P123" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q123" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R123" s="36"/>
     </row>
     <row r="124" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L124" s="43"/>
+      <c r="L124" s="42"/>
       <c r="M124" s="35">
         <v>35</v>
       </c>
-      <c r="N124" s="41" t="s">
+      <c r="N124" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O124" s="63" t="s">
+      <c r="O124" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="P124" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q124" s="63" t="s">
+      <c r="P124" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q124" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R124" s="36"/>
     </row>
     <row r="125" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L125" s="43"/>
-      <c r="M125" s="48">
+      <c r="L125" s="42"/>
+      <c r="M125" s="47">
         <v>56</v>
       </c>
-      <c r="N125" s="41" t="s">
+      <c r="N125" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O125" s="63" t="s">
+      <c r="O125" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="P125" s="63" t="s">
+      <c r="P125" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q125" s="63" t="s">
+      <c r="Q125" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R125" s="36"/>
     </row>
     <row r="126" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L126" s="43"/>
+      <c r="L126" s="42"/>
       <c r="M126" s="2">
         <v>35</v>
       </c>
-      <c r="N126" s="41" t="s">
+      <c r="N126" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O126" s="41" t="s">
+      <c r="O126" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="P126" s="63" t="s">
+      <c r="P126" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q126" s="63" t="s">
+      <c r="Q126" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R126" s="36"/>
     </row>
     <row r="127" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L127" s="43"/>
+      <c r="L127" s="42"/>
       <c r="M127" s="35">
         <v>7</v>
       </c>
-      <c r="N127" s="41" t="s">
+      <c r="N127" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O127" s="63" t="s">
+      <c r="O127" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="P127" s="63" t="s">
+      <c r="P127" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="Q127" s="63" t="s">
+      <c r="Q127" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R127" s="36"/>
     </row>
     <row r="128" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L128" s="43"/>
+      <c r="L128" s="42"/>
       <c r="M128" s="35">
         <v>58</v>
       </c>
-      <c r="N128" s="41" t="s">
+      <c r="N128" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O128" s="41" t="s">
+      <c r="O128" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="P128" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q128" s="63" t="s">
+      <c r="P128" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q128" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R128" s="36"/>
     </row>
     <row r="129" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L129" s="43"/>
+      <c r="L129" s="42"/>
       <c r="M129" s="35">
         <v>59</v>
       </c>
-      <c r="N129" s="41" t="s">
+      <c r="N129" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O129" s="63" t="s">
+      <c r="O129" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="P129" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q129" s="63" t="s">
+      <c r="P129" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q129" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R129" s="36"/>
     </row>
     <row r="130" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L130" s="43"/>
+      <c r="L130" s="42"/>
       <c r="M130" s="35">
         <v>7</v>
       </c>
-      <c r="N130" s="41" t="s">
+      <c r="N130" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O130" s="41" t="s">
+      <c r="O130" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="P130" s="63" t="s">
+      <c r="P130" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="Q130" s="63" t="s">
+      <c r="Q130" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R130" s="36"/>
     </row>
     <row r="131" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L131" s="43"/>
+      <c r="L131" s="42"/>
       <c r="M131" s="35">
         <v>60</v>
       </c>
-      <c r="N131" s="41" t="s">
+      <c r="N131" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O131" s="63" t="s">
+      <c r="O131" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="P131" s="63" t="s">
+      <c r="P131" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="Q131" s="63" t="s">
+      <c r="Q131" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R131" s="36"/>
     </row>
     <row r="132" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L132" s="43"/>
+      <c r="L132" s="42"/>
       <c r="M132" s="35">
         <v>61</v>
       </c>
-      <c r="N132" s="41" t="s">
+      <c r="N132" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O132" s="63" t="s">
+      <c r="O132" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="P132" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q132" s="63" t="s">
+      <c r="P132" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q132" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R132" s="36"/>
     </row>
     <row r="133" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L133" s="43"/>
+      <c r="L133" s="42"/>
       <c r="M133" s="35">
         <v>49</v>
       </c>
-      <c r="N133" s="41" t="s">
+      <c r="N133" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O133" s="63" t="s">
+      <c r="O133" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="P133" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q133" s="63" t="s">
+      <c r="P133" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q133" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R133" s="36"/>
     </row>
     <row r="134" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L134" s="43"/>
+      <c r="L134" s="42"/>
       <c r="M134" s="35">
         <v>49</v>
       </c>
-      <c r="N134" s="41" t="s">
+      <c r="N134" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O134" s="63" t="s">
+      <c r="O134" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="P134" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q134" s="63" t="s">
+      <c r="P134" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q134" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R134" s="36"/>
     </row>
     <row r="135" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L135" s="43"/>
+      <c r="L135" s="42"/>
       <c r="M135" s="35">
         <v>18</v>
       </c>
-      <c r="N135" s="41" t="s">
+      <c r="N135" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O135" s="41" t="s">
+      <c r="O135" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="P135" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q135" s="63" t="s">
+      <c r="P135" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q135" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R135" s="36"/>
     </row>
     <row r="136" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L136" s="43"/>
+      <c r="L136" s="42"/>
       <c r="M136" s="35">
         <v>62</v>
       </c>
-      <c r="N136" s="41" t="s">
+      <c r="N136" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O136" s="63" t="s">
+      <c r="O136" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="P136" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q136" s="63" t="s">
+      <c r="P136" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q136" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R136" s="36"/>
     </row>
     <row r="137" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L137" s="43"/>
+      <c r="L137" s="42"/>
       <c r="M137" s="35">
         <v>38</v>
       </c>
-      <c r="N137" s="41" t="s">
+      <c r="N137" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O137" s="41" t="s">
+      <c r="O137" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="P137" s="63" t="s">
+      <c r="P137" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="Q137" s="63" t="s">
+      <c r="Q137" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R137" s="36"/>
     </row>
     <row r="138" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L138" s="43"/>
+      <c r="L138" s="42"/>
       <c r="M138" s="35">
         <v>38</v>
       </c>
-      <c r="N138" s="41" t="s">
+      <c r="N138" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O138" s="63" t="s">
+      <c r="O138" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="P138" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q138" s="63" t="s">
+      <c r="P138" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q138" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R138" s="36"/>
     </row>
     <row r="139" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L139" s="43"/>
+      <c r="L139" s="42"/>
       <c r="M139" s="35">
         <v>38</v>
       </c>
-      <c r="N139" s="41" t="s">
+      <c r="N139" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O139" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="P139" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q139" s="63" t="s">
+      <c r="O139" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="P139" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q139" s="62" t="s">
         <v>21</v>
       </c>
       <c r="R139" s="36"/>
     </row>
     <row r="140" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L140" s="43"/>
+      <c r="L140" s="42"/>
       <c r="M140" s="35">
         <v>38</v>
       </c>
-      <c r="N140" s="41" t="s">
+      <c r="N140" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O140" s="63" t="s">
+      <c r="O140" s="131" t="s">
+        <v>298</v>
+      </c>
+      <c r="P140" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q140" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R140" s="36"/>
+    </row>
+    <row r="141" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L141" s="42"/>
+      <c r="M141" s="35">
+        <v>38</v>
+      </c>
+      <c r="N141" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="O141" s="131" t="s">
+        <v>299</v>
+      </c>
+      <c r="P141" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q141" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R141" s="36"/>
+    </row>
+    <row r="142" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L142" s="42"/>
+      <c r="M142" s="35">
+        <v>38</v>
+      </c>
+      <c r="N142" s="131" t="s">
+        <v>226</v>
+      </c>
+      <c r="O142" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="P142" s="151" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q142" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="R142" s="131"/>
+    </row>
+    <row r="143" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L143" s="42"/>
+      <c r="M143" s="35">
+        <v>38</v>
+      </c>
+      <c r="N143" s="131" t="s">
+        <v>226</v>
+      </c>
+      <c r="O143" s="131" t="s">
+        <v>298</v>
+      </c>
+      <c r="P143" s="131" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q143" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="R143" s="131"/>
+    </row>
+    <row r="144" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L144" s="42"/>
+      <c r="M144" s="35">
+        <v>38</v>
+      </c>
+      <c r="N144" s="131" t="s">
+        <v>226</v>
+      </c>
+      <c r="O144" s="131" t="s">
+        <v>299</v>
+      </c>
+      <c r="P144" s="131" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q144" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="R144" s="131"/>
+    </row>
+    <row r="145" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L145" s="42"/>
+      <c r="M145" s="35">
+        <v>38</v>
+      </c>
+      <c r="N145" s="131" t="s">
+        <v>226</v>
+      </c>
+      <c r="O145" s="131" t="s">
+        <v>218</v>
+      </c>
+      <c r="P145" s="131" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q145" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="R145" s="131"/>
+    </row>
+    <row r="146" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L146" s="42"/>
+      <c r="M146" s="35">
+        <v>38</v>
+      </c>
+      <c r="N146" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="O146" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="P140" s="63" t="s">
+      <c r="P146" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="Q140" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R140" s="36"/>
-    </row>
-    <row r="141" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L141" s="44"/>
-      <c r="M141" s="94">
+      <c r="Q146" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R146" s="36"/>
+    </row>
+    <row r="147" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L147" s="43"/>
+      <c r="M147" s="92">
         <v>67</v>
       </c>
-      <c r="N141" s="95" t="s">
+      <c r="N147" s="93" t="s">
         <v>226</v>
       </c>
-      <c r="O141" s="96" t="s">
+      <c r="O147" s="94" t="s">
         <v>220</v>
       </c>
-      <c r="P141" s="97" t="s">
+      <c r="P147" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="Q141" s="97" t="s">
-        <v>21</v>
-      </c>
-      <c r="R141" s="98"/>
-    </row>
-    <row r="142" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L142" s="83"/>
-      <c r="M142" s="68">
+      <c r="Q147" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="R147" s="96"/>
+    </row>
+    <row r="148" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L148" s="81"/>
+      <c r="M148" s="67">
         <v>44</v>
       </c>
-      <c r="N142" s="24" t="s">
+      <c r="N148" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="O142" s="65" t="s">
+      <c r="O148" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="P142" s="65" t="s">
+      <c r="P148" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="Q142" s="65" t="s">
+      <c r="Q148" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="R142" s="80" t="s">
+      <c r="R148" s="78" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L143" s="43"/>
-      <c r="M143" s="35">
+    <row r="149" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L149" s="42"/>
+      <c r="M149" s="35">
         <v>29</v>
       </c>
-      <c r="N143" s="41" t="s">
+      <c r="N149" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="O143" s="63" t="s">
+      <c r="O149" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="P143" s="63" t="s">
+      <c r="P149" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q143" s="63" t="s">
+      <c r="Q149" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="R143" s="36" t="s">
+      <c r="R149" s="36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L144" s="43"/>
-      <c r="M144" s="35">
+    <row r="150" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L150" s="42"/>
+      <c r="M150" s="35">
         <v>64</v>
       </c>
-      <c r="N144" s="41" t="s">
+      <c r="N150" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="O144" s="63" t="s">
+      <c r="O150" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="P144" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q144" s="63" t="s">
+      <c r="P150" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q150" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="R144" s="36" t="s">
+      <c r="R150" s="36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L145" s="43"/>
-      <c r="M145" s="35">
+    <row r="151" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L151" s="42"/>
+      <c r="M151" s="35">
         <v>9</v>
       </c>
-      <c r="N145" s="41" t="s">
+      <c r="N151" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="O145" s="63" t="s">
+      <c r="O151" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="P145" s="63" t="s">
+      <c r="P151" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q145" s="63" t="s">
+      <c r="Q151" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="R145" s="36" t="s">
+      <c r="R151" s="36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L146" s="43"/>
-      <c r="M146" s="35">
+    <row r="152" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L152" s="42"/>
+      <c r="M152" s="35">
         <v>61</v>
       </c>
-      <c r="N146" s="41" t="s">
+      <c r="N152" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="O146" s="63" t="s">
+      <c r="O152" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="P146" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q146" s="63" t="s">
+      <c r="P152" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q152" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="R146" s="36"/>
-    </row>
-    <row r="147" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L147" s="43"/>
-      <c r="M147" s="35">
+      <c r="R152" s="36"/>
+    </row>
+    <row r="153" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L153" s="42"/>
+      <c r="M153" s="35">
         <v>32</v>
       </c>
-      <c r="N147" s="41" t="s">
+      <c r="N153" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="O147" s="63" t="s">
+      <c r="O153" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="P147" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q147" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R147" s="36"/>
-    </row>
-    <row r="148" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L148" s="43"/>
-      <c r="M148" s="35">
+      <c r="P153" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q153" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R153" s="36"/>
+    </row>
+    <row r="154" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L154" s="42"/>
+      <c r="M154" s="35">
         <v>31</v>
       </c>
-      <c r="N148" s="41" t="s">
+      <c r="N154" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="O148" s="63" t="s">
+      <c r="O154" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="P148" s="63" t="s">
+      <c r="P154" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="Q148" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R148" s="36"/>
-    </row>
-    <row r="149" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L149" s="43"/>
-      <c r="M149" s="35">
+      <c r="Q154" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R154" s="36"/>
+    </row>
+    <row r="155" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L155" s="42"/>
+      <c r="M155" s="35">
         <v>30</v>
       </c>
-      <c r="N149" s="41" t="s">
+      <c r="N155" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="O149" s="63" t="s">
+      <c r="O155" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="P149" s="63" t="s">
+      <c r="P155" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q149" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R149" s="36"/>
-    </row>
-    <row r="150" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L150" s="43"/>
-      <c r="M150" s="35">
+      <c r="Q155" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R155" s="36"/>
+    </row>
+    <row r="156" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L156" s="42"/>
+      <c r="M156" s="35">
         <v>65</v>
       </c>
-      <c r="N150" s="41" t="s">
+      <c r="N156" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="O150" s="63" t="s">
+      <c r="O156" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="P150" s="63" t="s">
+      <c r="P156" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="Q150" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R150" s="36"/>
-    </row>
-    <row r="151" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L151" s="43"/>
-      <c r="M151" s="35">
+      <c r="Q156" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R156" s="36"/>
+    </row>
+    <row r="157" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L157" s="42"/>
+      <c r="M157" s="35">
         <v>66</v>
       </c>
-      <c r="N151" s="41" t="s">
+      <c r="N157" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="O151" s="63" t="s">
+      <c r="O157" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="P151" s="63" t="s">
+      <c r="P157" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Q151" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R151" s="36"/>
-    </row>
-    <row r="152" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L152" s="44"/>
-      <c r="M152" s="84">
+      <c r="Q157" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R157" s="36"/>
+    </row>
+    <row r="158" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L158" s="43"/>
+      <c r="M158" s="82">
         <v>38</v>
       </c>
-      <c r="N152" s="85" t="s">
+      <c r="N158" s="83" t="s">
         <v>227</v>
       </c>
-      <c r="O152" s="86" t="s">
+      <c r="O158" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="P152" s="86" t="s">
+      <c r="P158" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="Q152" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="R152" s="87"/>
+      <c r="Q158" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="R158" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6623,28 +6856,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="139" t="s">
         <v>269</v>
       </c>
-      <c r="E2" s="134"/>
-      <c r="F2" s="135"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="142" t="s">
+      <c r="H2" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="143"/>
-      <c r="J2" s="144"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="150"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="141"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="147"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="75"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="26" t="s">
         <v>147</v>
       </c>
@@ -6655,14 +6888,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="138"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="144"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="47" t="s">
+      <c r="H4" s="74"/>
+      <c r="I4" s="46" t="s">
         <v>148</v>
       </c>
       <c r="J4" s="37"/>
@@ -6672,11 +6905,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="137"/>
-      <c r="F5" s="138"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6688,29 +6921,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="128" t="s">
+      <c r="I7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="129"/>
-      <c r="K7" s="130"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="126" t="s">
+      <c r="M7" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6762,45 +6995,45 @@
       </c>
     </row>
     <row r="9" spans="2:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="45">
+      <c r="B9" s="44">
         <v>1</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="106" t="s">
         <v>271</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="51" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="68">
+      <c r="F9" s="45"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="67">
         <v>21</v>
       </c>
       <c r="J9" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="69" t="s">
+      <c r="K9" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="L9" s="103"/>
-      <c r="M9" s="68">
+      <c r="L9" s="101"/>
+      <c r="M9" s="67">
         <v>21</v>
       </c>
       <c r="N9" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="O9" s="65" t="s">
+      <c r="O9" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="P9" s="65" t="s">
+      <c r="P9" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="65" t="s">
+      <c r="Q9" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="80" t="s">
+      <c r="R9" s="78" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6808,16 +7041,16 @@
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="41"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="113"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="111"/>
       <c r="I10" s="35">
         <v>22</v>
       </c>
@@ -6827,20 +7060,20 @@
       <c r="K10" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="L10" s="103"/>
-      <c r="M10" s="48">
+      <c r="L10" s="101"/>
+      <c r="M10" s="47">
         <v>22</v>
       </c>
-      <c r="N10" s="41" t="s">
+      <c r="N10" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="O10" s="41" t="s">
+      <c r="O10" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="P10" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="63" t="s">
+      <c r="P10" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="62" t="s">
         <v>18</v>
       </c>
       <c r="R10" s="36" t="s">
@@ -6851,16 +7084,16 @@
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="41"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="113"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="111"/>
       <c r="I11" s="35">
         <v>23</v>
       </c>
@@ -6870,330 +7103,330 @@
       <c r="K11" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="L11" s="103"/>
-      <c r="M11" s="116">
+      <c r="L11" s="101"/>
+      <c r="M11" s="114">
         <v>23</v>
       </c>
-      <c r="N11" s="41" t="s">
+      <c r="N11" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="O11" s="40" t="s">
+      <c r="O11" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="P11" s="117" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="117" t="s">
-        <v>21</v>
-      </c>
-      <c r="R11" s="39"/>
+      <c r="P11" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="38"/>
     </row>
     <row r="12" spans="2:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B12" s="25">
         <v>4</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="41"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="113"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="111"/>
       <c r="I12" s="35">
         <v>24</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="K12" s="70" t="s">
+      <c r="K12" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="L12" s="103"/>
-      <c r="M12" s="118">
+      <c r="L12" s="101"/>
+      <c r="M12" s="116">
         <v>24</v>
       </c>
-      <c r="N12" s="41" t="s">
+      <c r="N12" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="O12" s="117" t="s">
+      <c r="O12" s="115" t="s">
         <v>191</v>
       </c>
-      <c r="P12" s="117" t="s">
+      <c r="P12" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="117" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="39"/>
+      <c r="Q12" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="38"/>
     </row>
     <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="48">
+      <c r="B13" s="47">
         <v>5</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="107" t="s">
         <v>272</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="50" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="113"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="111"/>
       <c r="I13" s="34">
         <v>25</v>
       </c>
-      <c r="J13" s="120" t="s">
+      <c r="J13" s="118" t="s">
         <v>240</v>
       </c>
-      <c r="K13" s="124" t="s">
+      <c r="K13" s="122" t="s">
         <v>293</v>
       </c>
-      <c r="L13" s="44"/>
-      <c r="M13" s="119">
-        <v>25</v>
-      </c>
-      <c r="N13" s="125" t="s">
+      <c r="L13" s="43"/>
+      <c r="M13" s="117">
+        <v>25</v>
+      </c>
+      <c r="N13" s="123" t="s">
         <v>295</v>
       </c>
-      <c r="O13" s="121" t="s">
+      <c r="O13" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="P13" s="122" t="s">
+      <c r="P13" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="Q13" s="122" t="s">
-        <v>21</v>
-      </c>
-      <c r="R13" s="123"/>
+      <c r="Q13" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="121"/>
     </row>
     <row r="14" spans="2:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="48">
+      <c r="B14" s="47">
         <v>6</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="107" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="50" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="113"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="111"/>
     </row>
     <row r="15" spans="2:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B15" s="25">
         <v>7</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="50" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="113"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="111"/>
     </row>
     <row r="16" spans="2:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="108" t="s">
         <v>275</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="26"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="113"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="111"/>
     </row>
     <row r="17" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B17" s="25">
         <v>9</v>
       </c>
-      <c r="C17" s="110" t="s">
+      <c r="C17" s="108" t="s">
         <v>276</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="113"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="111"/>
     </row>
     <row r="18" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B18" s="25">
         <v>10</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="107" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="50" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="26"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="113"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="111"/>
     </row>
     <row r="19" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B19" s="25">
         <v>11</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="107" t="s">
         <v>278</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="50" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="26"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="113"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="111"/>
     </row>
     <row r="20" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B20" s="25">
         <v>12</v>
       </c>
-      <c r="C20" s="109" t="s">
+      <c r="C20" s="107" t="s">
         <v>271</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="50" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="26"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="113"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="111"/>
     </row>
     <row r="21" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B21" s="25">
         <v>13</v>
       </c>
-      <c r="C21" s="109" t="s">
+      <c r="C21" s="107" t="s">
         <v>280</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="50" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="26"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="113"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="111"/>
     </row>
     <row r="22" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="48">
+      <c r="B22" s="47">
         <v>14</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="107" t="s">
         <v>281</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="50" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="26"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="113"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="111"/>
     </row>
     <row r="23" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="48">
+      <c r="B23" s="47">
         <v>15</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="107" t="s">
         <v>277</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="50" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="26"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="113"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="111"/>
     </row>
     <row r="24" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B24" s="25">
         <v>16</v>
       </c>
-      <c r="C24" s="112" t="s">
+      <c r="C24" s="110" t="s">
         <v>279</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="50" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="26"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="113"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="111"/>
     </row>
     <row r="25" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B25" s="25">
         <v>17</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="107" t="s">
         <v>282</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>294</v>
       </c>
       <c r="E25" s="26"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="113"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="111"/>
     </row>
     <row r="26" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B26" s="25">
         <v>18</v>
       </c>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="107" t="s">
         <v>283</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="50" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="26"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="113"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="111"/>
     </row>
     <row r="27" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B27" s="25">
         <v>19</v>
       </c>
-      <c r="C27" s="109" t="s">
+      <c r="C27" s="107" t="s">
         <v>284</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="50" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="26"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="113"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="111"/>
     </row>
     <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53">
+      <c r="B28" s="52">
         <v>20</v>
       </c>
-      <c r="C28" s="111" t="s">
+      <c r="C28" s="109" t="s">
         <v>285</v>
       </c>
-      <c r="D28" s="115" t="s">
+      <c r="D28" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="114"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Leasing/Mapeos_CON_Leasing_V1.xlsx
+++ b/Leasing/Mapeos_CON_Leasing_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="75" windowWidth="19455" windowHeight="4410" tabRatio="583"/>
+    <workbookView xWindow="1365" yWindow="75" windowWidth="19455" windowHeight="4410" tabRatio="583" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DESEMBOLSO-HAB_DESEMBOLSO" sheetId="8" r:id="rId1"/>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="300">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -2502,6 +2502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="87" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="87" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2559,7 +2560,6 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="87" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="131">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -3083,7 +3083,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3094,8 +3094,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:R158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L74" workbookViewId="0">
-      <selection activeCell="O147" sqref="O83:O147"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3132,26 +3132,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="139" t="s">
+      <c r="D2" s="140" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="142"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="149"/>
-      <c r="J2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="151"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="147"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="10"/>
       <c r="H3" s="73"/>
       <c r="I3" s="26" t="s">
@@ -3164,11 +3164,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="143"/>
-      <c r="F4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="7"/>
       <c r="H4" s="74"/>
       <c r="I4" s="46" t="s">
@@ -3181,11 +3181,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="143"/>
-      <c r="F5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3197,29 +3197,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="134" t="s">
+      <c r="I7" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="135"/>
-      <c r="K7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="137"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="132" t="s">
+      <c r="M7" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="134"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6476,7 +6476,7 @@
       <c r="O142" s="131" t="s">
         <v>297</v>
       </c>
-      <c r="P142" s="151" t="s">
+      <c r="P142" s="132" t="s">
         <v>131</v>
       </c>
       <c r="Q142" s="131" t="s">
@@ -6816,10 +6816,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="B1:R28"/>
+  <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6856,26 +6856,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="139" t="s">
+      <c r="D2" s="140" t="s">
         <v>269</v>
       </c>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="142"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="149"/>
-      <c r="J2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="151"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="147"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="10"/>
       <c r="H3" s="73"/>
       <c r="I3" s="26" t="s">
@@ -6888,11 +6888,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="143"/>
-      <c r="F4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="7"/>
       <c r="H4" s="74"/>
       <c r="I4" s="46" t="s">
@@ -6905,11 +6905,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="143"/>
-      <c r="F5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6921,29 +6921,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="134" t="s">
+      <c r="I7" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="135"/>
-      <c r="K7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="137"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="132" t="s">
+      <c r="M7" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="134"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -7295,10 +7295,10 @@
     </row>
     <row r="20" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B20" s="25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="107" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="D20" s="50" t="s">
         <v>17</v>
@@ -7309,11 +7309,11 @@
       <c r="H20" s="111"/>
     </row>
     <row r="21" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="25">
-        <v>13</v>
+      <c r="B21" s="47">
+        <v>14</v>
       </c>
       <c r="C21" s="107" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D21" s="50" t="s">
         <v>17</v>
@@ -7324,11 +7324,11 @@
       <c r="H21" s="111"/>
     </row>
     <row r="22" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="47">
-        <v>14</v>
-      </c>
-      <c r="C22" s="107" t="s">
-        <v>281</v>
+      <c r="B22" s="25">
+        <v>16</v>
+      </c>
+      <c r="C22" s="110" t="s">
+        <v>279</v>
       </c>
       <c r="D22" s="50" t="s">
         <v>17</v>
@@ -7339,14 +7339,14 @@
       <c r="H22" s="111"/>
     </row>
     <row r="23" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="47">
-        <v>15</v>
+      <c r="B23" s="25">
+        <v>17</v>
       </c>
       <c r="C23" s="107" t="s">
-        <v>277</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>17</v>
+        <v>282</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>294</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="48"/>
@@ -7355,10 +7355,10 @@
     </row>
     <row r="24" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B24" s="25">
-        <v>16</v>
-      </c>
-      <c r="C24" s="110" t="s">
-        <v>279</v>
+        <v>18</v>
+      </c>
+      <c r="C24" s="107" t="s">
+        <v>283</v>
       </c>
       <c r="D24" s="50" t="s">
         <v>17</v>
@@ -7370,63 +7370,33 @@
     </row>
     <row r="25" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B25" s="25">
+        <v>19</v>
+      </c>
+      <c r="C25" s="107" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" s="50" t="s">
         <v>17</v>
-      </c>
-      <c r="C25" s="107" t="s">
-        <v>282</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>294</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="48"/>
       <c r="G25" s="104"/>
       <c r="H25" s="111"/>
     </row>
-    <row r="26" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B26" s="25">
-        <v>18</v>
-      </c>
-      <c r="C26" s="107" t="s">
-        <v>283</v>
-      </c>
-      <c r="D26" s="50" t="s">
+    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="52">
+        <v>20</v>
+      </c>
+      <c r="C26" s="109" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="111"/>
-    </row>
-    <row r="27" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B27" s="25">
-        <v>19</v>
-      </c>
-      <c r="C27" s="107" t="s">
-        <v>284</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="111"/>
-    </row>
-    <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="52">
-        <v>20</v>
-      </c>
-      <c r="C28" s="109" t="s">
-        <v>285</v>
-      </c>
-      <c r="D28" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="112"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Leasing/Mapeos_CON_Leasing_V1.xlsx
+++ b/Leasing/Mapeos_CON_Leasing_V1.xlsx
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="304">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1281,6 +1281,18 @@
   </si>
   <si>
     <t>NRO_OBL_REST</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Proceso</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Proceso (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Default</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
   </si>
 </sst>
 </file>
@@ -2307,7 +2319,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -2452,17 +2464,12 @@
     <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2560,6 +2567,10 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="131">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -3083,7 +3094,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3094,8 +3105,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:R158"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3132,26 +3143,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="140" t="s">
+      <c r="D2" s="135" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="141"/>
-      <c r="F2" s="142"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="137"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="149" t="s">
+      <c r="H2" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="150"/>
-      <c r="J2" s="151"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="143"/>
       <c r="G3" s="10"/>
       <c r="H3" s="73"/>
       <c r="I3" s="26" t="s">
@@ -3164,11 +3175,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
       <c r="G4" s="7"/>
       <c r="H4" s="74"/>
       <c r="I4" s="46" t="s">
@@ -3181,11 +3192,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="140"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3197,29 +3208,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="132"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="133" t="s">
+      <c r="M7" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
-      <c r="R7" s="134"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3290,11 +3301,11 @@
       <c r="J9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="97" t="s">
+      <c r="K9" s="68" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="101"/>
-      <c r="M9" s="129">
+      <c r="L9" s="149"/>
+      <c r="M9" s="124">
         <v>29</v>
       </c>
       <c r="N9" s="71" t="s">
@@ -3333,11 +3344,11 @@
       <c r="J10" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="90" t="s">
+      <c r="K10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="128">
+      <c r="L10" s="149"/>
+      <c r="M10" s="123">
         <v>30</v>
       </c>
       <c r="N10" s="63" t="s">
@@ -3374,11 +3385,11 @@
       <c r="J11" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="90" t="s">
+      <c r="K11" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="101"/>
-      <c r="M11" s="128">
+      <c r="L11" s="149"/>
+      <c r="M11" s="123">
         <v>31</v>
       </c>
       <c r="N11" s="63" t="s">
@@ -3415,11 +3426,11 @@
       <c r="J12" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="K12" s="98" t="s">
+      <c r="K12" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="L12" s="101"/>
-      <c r="M12" s="128">
+      <c r="L12" s="149"/>
+      <c r="M12" s="123">
         <v>32</v>
       </c>
       <c r="N12" s="63" t="s">
@@ -3456,11 +3467,11 @@
       <c r="J13" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="99" t="s">
+      <c r="K13" s="150" t="s">
         <v>249</v>
       </c>
-      <c r="L13" s="42"/>
-      <c r="M13" s="128">
+      <c r="L13" s="106"/>
+      <c r="M13" s="123">
         <v>1</v>
       </c>
       <c r="N13" s="63" t="s">
@@ -3499,11 +3510,11 @@
       <c r="J14" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="K14" s="98" t="s">
+      <c r="K14" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="L14" s="42"/>
-      <c r="M14" s="128">
+      <c r="L14" s="106"/>
+      <c r="M14" s="123">
         <v>33</v>
       </c>
       <c r="N14" s="63" t="s">
@@ -3540,11 +3551,11 @@
       <c r="J15" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="90" t="s">
+      <c r="K15" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="42"/>
-      <c r="M15" s="128">
+      <c r="L15" s="106"/>
+      <c r="M15" s="123">
         <v>34</v>
       </c>
       <c r="N15" s="63" t="s">
@@ -3581,11 +3592,11 @@
       <c r="J16" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="K16" s="98" t="s">
+      <c r="K16" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="128">
+      <c r="L16" s="106"/>
+      <c r="M16" s="123">
         <v>35</v>
       </c>
       <c r="N16" s="63" t="s">
@@ -3622,11 +3633,11 @@
       <c r="J17" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="K17" s="98" t="s">
+      <c r="K17" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="L17" s="42"/>
-      <c r="M17" s="128">
+      <c r="L17" s="106"/>
+      <c r="M17" s="123">
         <v>35</v>
       </c>
       <c r="N17" s="63" t="s">
@@ -3663,11 +3674,11 @@
       <c r="J18" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="90" t="s">
+      <c r="K18" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="42"/>
-      <c r="M18" s="128">
+      <c r="L18" s="106"/>
+      <c r="M18" s="123">
         <v>36</v>
       </c>
       <c r="N18" s="63" t="s">
@@ -3704,11 +3715,11 @@
       <c r="J19" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="98" t="s">
+      <c r="K19" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="L19" s="42"/>
-      <c r="M19" s="128">
+      <c r="L19" s="106"/>
+      <c r="M19" s="123">
         <v>35</v>
       </c>
       <c r="N19" s="63" t="s">
@@ -3745,11 +3756,11 @@
       <c r="J20" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="98" t="s">
+      <c r="K20" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="L20" s="42"/>
-      <c r="M20" s="128">
+      <c r="L20" s="106"/>
+      <c r="M20" s="123">
         <v>37</v>
       </c>
       <c r="N20" s="63" t="s">
@@ -3786,11 +3797,11 @@
       <c r="J21" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="K21" s="98" t="s">
+      <c r="K21" s="69" t="s">
         <v>255</v>
       </c>
-      <c r="L21" s="42"/>
-      <c r="M21" s="127">
+      <c r="L21" s="106"/>
+      <c r="M21" s="122">
         <v>35</v>
       </c>
       <c r="N21" s="63" t="s">
@@ -3827,11 +3838,11 @@
       <c r="J22" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="K22" s="90" t="s">
+      <c r="K22" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="L22" s="42"/>
-      <c r="M22" s="127">
+      <c r="L22" s="106"/>
+      <c r="M22" s="122">
         <v>38</v>
       </c>
       <c r="N22" s="63" t="s">
@@ -3868,11 +3879,11 @@
       <c r="J23" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="K23" s="90" t="s">
+      <c r="K23" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="L23" s="42"/>
-      <c r="M23" s="127">
+      <c r="L23" s="106"/>
+      <c r="M23" s="122">
         <v>35</v>
       </c>
       <c r="N23" s="63" t="s">
@@ -3909,11 +3920,11 @@
       <c r="J24" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="K24" s="90" t="s">
+      <c r="K24" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="L24" s="42"/>
-      <c r="M24" s="127">
+      <c r="L24" s="106"/>
+      <c r="M24" s="122">
         <v>38</v>
       </c>
       <c r="N24" s="63" t="s">
@@ -3950,11 +3961,11 @@
       <c r="J25" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="K25" s="98" t="s">
+      <c r="K25" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="127">
+      <c r="L25" s="106"/>
+      <c r="M25" s="122">
         <v>35</v>
       </c>
       <c r="N25" s="63" t="s">
@@ -3991,11 +4002,11 @@
       <c r="J26" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="K26" s="90" t="s">
+      <c r="K26" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="L26" s="42"/>
-      <c r="M26" s="127">
+      <c r="L26" s="106"/>
+      <c r="M26" s="122">
         <v>38</v>
       </c>
       <c r="N26" s="63" t="s">
@@ -4032,11 +4043,11 @@
       <c r="J27" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="K27" s="90" t="s">
+      <c r="K27" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="L27" s="42"/>
-      <c r="M27" s="127">
+      <c r="L27" s="106"/>
+      <c r="M27" s="122">
         <v>35</v>
       </c>
       <c r="N27" s="63" t="s">
@@ -4073,11 +4084,11 @@
       <c r="J28" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="K28" s="98" t="s">
+      <c r="K28" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="L28" s="42"/>
-      <c r="M28" s="127">
+      <c r="L28" s="106"/>
+      <c r="M28" s="122">
         <v>38</v>
       </c>
       <c r="N28" s="63" t="s">
@@ -4114,11 +4125,11 @@
       <c r="J29" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="K29" s="90" t="s">
+      <c r="K29" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="L29" s="42"/>
-      <c r="M29" s="127">
+      <c r="L29" s="106"/>
+      <c r="M29" s="122">
         <v>35</v>
       </c>
       <c r="N29" s="63" t="s">
@@ -4155,11 +4166,11 @@
       <c r="J30" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="K30" s="90" t="s">
+      <c r="K30" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="L30" s="42"/>
-      <c r="M30" s="127">
+      <c r="L30" s="106"/>
+      <c r="M30" s="122">
         <v>38</v>
       </c>
       <c r="N30" s="63" t="s">
@@ -4196,11 +4207,11 @@
       <c r="J31" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="K31" s="90" t="s">
+      <c r="K31" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="L31" s="42"/>
-      <c r="M31" s="127">
+      <c r="L31" s="106"/>
+      <c r="M31" s="122">
         <v>35</v>
       </c>
       <c r="N31" s="63" t="s">
@@ -4237,11 +4248,11 @@
       <c r="J32" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="K32" s="98" t="s">
+      <c r="K32" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="L32" s="42"/>
-      <c r="M32" s="127">
+      <c r="L32" s="106"/>
+      <c r="M32" s="122">
         <v>38</v>
       </c>
       <c r="N32" s="63" t="s">
@@ -4278,11 +4289,11 @@
       <c r="J33" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="K33" s="90" t="s">
+      <c r="K33" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="L33" s="42"/>
-      <c r="M33" s="127">
+      <c r="L33" s="106"/>
+      <c r="M33" s="122">
         <v>35</v>
       </c>
       <c r="N33" s="63" t="s">
@@ -4319,11 +4330,11 @@
       <c r="J34" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="K34" s="90" t="s">
+      <c r="K34" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="L34" s="42"/>
-      <c r="M34" s="127">
+      <c r="L34" s="106"/>
+      <c r="M34" s="122">
         <v>38</v>
       </c>
       <c r="N34" s="63" t="s">
@@ -4360,11 +4371,11 @@
       <c r="J35" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="K35" s="98" t="s">
+      <c r="K35" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="L35" s="42"/>
-      <c r="M35" s="127">
+      <c r="L35" s="106"/>
+      <c r="M35" s="122">
         <v>35</v>
       </c>
       <c r="N35" s="63" t="s">
@@ -4401,11 +4412,11 @@
       <c r="J36" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="K36" s="90" t="s">
+      <c r="K36" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="L36" s="42"/>
-      <c r="M36" s="127">
+      <c r="L36" s="106"/>
+      <c r="M36" s="122">
         <v>38</v>
       </c>
       <c r="N36" s="63" t="s">
@@ -4429,11 +4440,11 @@
       <c r="J37" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="K37" s="90" t="s">
+      <c r="K37" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="L37" s="42"/>
-      <c r="M37" s="127">
+      <c r="L37" s="106"/>
+      <c r="M37" s="122">
         <v>35</v>
       </c>
       <c r="N37" s="63" t="s">
@@ -4457,11 +4468,11 @@
       <c r="J38" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="K38" s="98" t="s">
+      <c r="K38" s="69" t="s">
         <v>246</v>
       </c>
-      <c r="L38" s="42"/>
-      <c r="M38" s="127">
+      <c r="L38" s="106"/>
+      <c r="M38" s="122">
         <v>38</v>
       </c>
       <c r="N38" s="63" t="s">
@@ -4485,11 +4496,11 @@
       <c r="J39" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="K39" s="90" t="s">
+      <c r="K39" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="L39" s="42"/>
-      <c r="M39" s="127">
+      <c r="L39" s="106"/>
+      <c r="M39" s="122">
         <v>35</v>
       </c>
       <c r="N39" s="63" t="s">
@@ -4506,18 +4517,18 @@
       </c>
       <c r="R39" s="36"/>
     </row>
-    <row r="40" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I40" s="34">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I40" s="35">
         <v>67</v>
       </c>
-      <c r="J40" s="46" t="s">
+      <c r="J40" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="K40" s="100" t="s">
+      <c r="K40" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="L40" s="42"/>
-      <c r="M40" s="127">
+      <c r="L40" s="106"/>
+      <c r="M40" s="122">
         <v>38</v>
       </c>
       <c r="N40" s="63" t="s">
@@ -4535,8 +4546,17 @@
       <c r="R40" s="36"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L41" s="42"/>
-      <c r="M41" s="126">
+      <c r="I41" s="35">
+        <v>68</v>
+      </c>
+      <c r="J41" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="K41" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="L41" s="106"/>
+      <c r="M41" s="121">
         <v>39</v>
       </c>
       <c r="N41" s="63" t="s">
@@ -4553,9 +4573,18 @@
       </c>
       <c r="R41" s="36"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L42" s="42"/>
-      <c r="M42" s="127">
+    <row r="42" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="34">
+        <v>69</v>
+      </c>
+      <c r="J42" s="147" t="s">
+        <v>302</v>
+      </c>
+      <c r="K42" s="148" t="s">
+        <v>303</v>
+      </c>
+      <c r="L42" s="106"/>
+      <c r="M42" s="122">
         <v>40</v>
       </c>
       <c r="N42" s="63" t="s">
@@ -4574,7 +4603,7 @@
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L43" s="42"/>
-      <c r="M43" s="127">
+      <c r="M43" s="122">
         <v>35</v>
       </c>
       <c r="N43" s="63" t="s">
@@ -4593,7 +4622,7 @@
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L44" s="42"/>
-      <c r="M44" s="127">
+      <c r="M44" s="122">
         <v>38</v>
       </c>
       <c r="N44" s="63" t="s">
@@ -4612,7 +4641,7 @@
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L45" s="42"/>
-      <c r="M45" s="127">
+      <c r="M45" s="122">
         <v>35</v>
       </c>
       <c r="N45" s="63" t="s">
@@ -4631,7 +4660,7 @@
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L46" s="42"/>
-      <c r="M46" s="127">
+      <c r="M46" s="122">
         <v>41</v>
       </c>
       <c r="N46" s="63" t="s">
@@ -4650,7 +4679,7 @@
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L47" s="42"/>
-      <c r="M47" s="127">
+      <c r="M47" s="122">
         <v>35</v>
       </c>
       <c r="N47" s="63" t="s">
@@ -4669,7 +4698,7 @@
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L48" s="42"/>
-      <c r="M48" s="127">
+      <c r="M48" s="122">
         <v>38</v>
       </c>
       <c r="N48" s="63" t="s">
@@ -4688,7 +4717,7 @@
     </row>
     <row r="49" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L49" s="42"/>
-      <c r="M49" s="127">
+      <c r="M49" s="122">
         <v>38</v>
       </c>
       <c r="N49" s="63" t="s">
@@ -4707,7 +4736,7 @@
     </row>
     <row r="50" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L50" s="42"/>
-      <c r="M50" s="127">
+      <c r="M50" s="122">
         <v>35</v>
       </c>
       <c r="N50" s="63" t="s">
@@ -4726,7 +4755,7 @@
     </row>
     <row r="51" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L51" s="42"/>
-      <c r="M51" s="127">
+      <c r="M51" s="122">
         <v>38</v>
       </c>
       <c r="N51" s="63" t="s">
@@ -4745,7 +4774,7 @@
     </row>
     <row r="52" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L52" s="42"/>
-      <c r="M52" s="126">
+      <c r="M52" s="121">
         <v>11</v>
       </c>
       <c r="N52" s="63" t="s">
@@ -4766,7 +4795,7 @@
     </row>
     <row r="53" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L53" s="42"/>
-      <c r="M53" s="127">
+      <c r="M53" s="122">
         <v>12</v>
       </c>
       <c r="N53" s="63" t="s">
@@ -4785,8 +4814,8 @@
     </row>
     <row r="54" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L54" s="42"/>
-      <c r="M54" s="130">
-        <v>38</v>
+      <c r="M54" s="125">
+        <v>69</v>
       </c>
       <c r="N54" s="70" t="s">
         <v>145</v>
@@ -4804,7 +4833,7 @@
     </row>
     <row r="55" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L55" s="42"/>
-      <c r="M55" s="127">
+      <c r="M55" s="122">
         <v>38</v>
       </c>
       <c r="N55" s="63" t="s">
@@ -4823,7 +4852,7 @@
     </row>
     <row r="56" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L56" s="42"/>
-      <c r="M56" s="127">
+      <c r="M56" s="122">
         <v>16</v>
       </c>
       <c r="N56" s="63" t="s">
@@ -4842,7 +4871,7 @@
     </row>
     <row r="57" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L57" s="42"/>
-      <c r="M57" s="127">
+      <c r="M57" s="122">
         <v>38</v>
       </c>
       <c r="N57" s="63" t="s">
@@ -4861,7 +4890,7 @@
     </row>
     <row r="58" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L58" s="42"/>
-      <c r="M58" s="127">
+      <c r="M58" s="122">
         <v>38</v>
       </c>
       <c r="N58" s="63" t="s">
@@ -4880,7 +4909,7 @@
     </row>
     <row r="59" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L59" s="42"/>
-      <c r="M59" s="127">
+      <c r="M59" s="122">
         <v>38</v>
       </c>
       <c r="N59" s="63" t="s">
@@ -4899,7 +4928,7 @@
     </row>
     <row r="60" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L60" s="42"/>
-      <c r="M60" s="127">
+      <c r="M60" s="122">
         <v>42</v>
       </c>
       <c r="N60" s="63" t="s">
@@ -4918,7 +4947,7 @@
     </row>
     <row r="61" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L61" s="42"/>
-      <c r="M61" s="127">
+      <c r="M61" s="122">
         <v>38</v>
       </c>
       <c r="N61" s="63" t="s">
@@ -4937,7 +4966,7 @@
     </row>
     <row r="62" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L62" s="42"/>
-      <c r="M62" s="127">
+      <c r="M62" s="122">
         <v>23</v>
       </c>
       <c r="N62" s="63" t="s">
@@ -4956,7 +4985,7 @@
     </row>
     <row r="63" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L63" s="42"/>
-      <c r="M63" s="127">
+      <c r="M63" s="122">
         <v>38</v>
       </c>
       <c r="N63" s="63" t="s">
@@ -4975,7 +5004,7 @@
     </row>
     <row r="64" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L64" s="42"/>
-      <c r="M64" s="127">
+      <c r="M64" s="122">
         <v>43</v>
       </c>
       <c r="N64" s="63" t="s">
@@ -4994,7 +5023,7 @@
     </row>
     <row r="65" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L65" s="42"/>
-      <c r="M65" s="127">
+      <c r="M65" s="122">
         <v>44</v>
       </c>
       <c r="N65" s="63" t="s">
@@ -5013,7 +5042,7 @@
     </row>
     <row r="66" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L66" s="42"/>
-      <c r="M66" s="127">
+      <c r="M66" s="122">
         <v>45</v>
       </c>
       <c r="N66" s="63" t="s">
@@ -5032,26 +5061,26 @@
     </row>
     <row r="67" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L67" s="42"/>
-      <c r="M67" s="125">
+      <c r="M67" s="120">
         <v>38</v>
       </c>
-      <c r="N67" s="124" t="s">
+      <c r="N67" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="O67" s="124" t="s">
+      <c r="O67" s="119" t="s">
         <v>296</v>
       </c>
-      <c r="P67" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q67" s="124" t="s">
+      <c r="P67" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q67" s="119" t="s">
         <v>21</v>
       </c>
       <c r="R67" s="77"/>
     </row>
     <row r="68" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L68" s="42"/>
-      <c r="M68" s="127">
+      <c r="M68" s="122">
         <v>7</v>
       </c>
       <c r="N68" s="63" t="s">
@@ -5070,7 +5099,7 @@
     </row>
     <row r="69" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L69" s="43"/>
-      <c r="M69" s="125">
+      <c r="M69" s="120">
         <v>38</v>
       </c>
       <c r="N69" s="76" t="s">
@@ -5935,7 +5964,7 @@
     </row>
     <row r="114" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L114" s="42"/>
-      <c r="M114" s="91">
+      <c r="M114" s="90">
         <v>67</v>
       </c>
       <c r="N114" s="87" t="s">
@@ -6435,7 +6464,7 @@
       <c r="N140" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O140" s="131" t="s">
+      <c r="O140" s="126" t="s">
         <v>298</v>
       </c>
       <c r="P140" s="62" t="s">
@@ -6454,7 +6483,7 @@
       <c r="N141" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="O141" s="131" t="s">
+      <c r="O141" s="126" t="s">
         <v>299</v>
       </c>
       <c r="P141" s="62" t="s">
@@ -6470,76 +6499,76 @@
       <c r="M142" s="35">
         <v>38</v>
       </c>
-      <c r="N142" s="131" t="s">
+      <c r="N142" s="126" t="s">
         <v>226</v>
       </c>
-      <c r="O142" s="131" t="s">
+      <c r="O142" s="126" t="s">
         <v>297</v>
       </c>
-      <c r="P142" s="132" t="s">
+      <c r="P142" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="Q142" s="131" t="s">
-        <v>21</v>
-      </c>
-      <c r="R142" s="131"/>
+      <c r="Q142" s="126" t="s">
+        <v>21</v>
+      </c>
+      <c r="R142" s="126"/>
     </row>
     <row r="143" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L143" s="42"/>
       <c r="M143" s="35">
         <v>38</v>
       </c>
-      <c r="N143" s="131" t="s">
+      <c r="N143" s="126" t="s">
         <v>226</v>
       </c>
-      <c r="O143" s="131" t="s">
+      <c r="O143" s="126" t="s">
         <v>298</v>
       </c>
-      <c r="P143" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q143" s="131" t="s">
-        <v>21</v>
-      </c>
-      <c r="R143" s="131"/>
+      <c r="P143" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q143" s="126" t="s">
+        <v>21</v>
+      </c>
+      <c r="R143" s="126"/>
     </row>
     <row r="144" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L144" s="42"/>
       <c r="M144" s="35">
         <v>38</v>
       </c>
-      <c r="N144" s="131" t="s">
+      <c r="N144" s="126" t="s">
         <v>226</v>
       </c>
-      <c r="O144" s="131" t="s">
+      <c r="O144" s="126" t="s">
         <v>299</v>
       </c>
-      <c r="P144" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q144" s="131" t="s">
-        <v>21</v>
-      </c>
-      <c r="R144" s="131"/>
+      <c r="P144" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q144" s="126" t="s">
+        <v>21</v>
+      </c>
+      <c r="R144" s="126"/>
     </row>
     <row r="145" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L145" s="42"/>
       <c r="M145" s="35">
         <v>38</v>
       </c>
-      <c r="N145" s="131" t="s">
+      <c r="N145" s="126" t="s">
         <v>226</v>
       </c>
-      <c r="O145" s="131" t="s">
+      <c r="O145" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="P145" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q145" s="131" t="s">
-        <v>21</v>
-      </c>
-      <c r="R145" s="131"/>
+      <c r="P145" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q145" s="126" t="s">
+        <v>21</v>
+      </c>
+      <c r="R145" s="126"/>
     </row>
     <row r="146" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L146" s="42"/>
@@ -6562,22 +6591,22 @@
     </row>
     <row r="147" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L147" s="43"/>
-      <c r="M147" s="92">
+      <c r="M147" s="91">
         <v>67</v>
       </c>
-      <c r="N147" s="93" t="s">
+      <c r="N147" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="O147" s="94" t="s">
+      <c r="O147" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="P147" s="95" t="s">
+      <c r="P147" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="Q147" s="95" t="s">
-        <v>21</v>
-      </c>
-      <c r="R147" s="96"/>
+      <c r="Q147" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="R147" s="95"/>
     </row>
     <row r="148" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L148" s="81"/>
@@ -6780,7 +6809,7 @@
     <row r="158" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L158" s="43"/>
       <c r="M158" s="82">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="N158" s="83" t="s">
         <v>227</v>
@@ -6818,8 +6847,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6856,26 +6885,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="140" t="s">
+      <c r="D2" s="135" t="s">
         <v>269</v>
       </c>
-      <c r="E2" s="141"/>
-      <c r="F2" s="142"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="137"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="149" t="s">
+      <c r="H2" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="150"/>
-      <c r="J2" s="151"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="143"/>
       <c r="G3" s="10"/>
       <c r="H3" s="73"/>
       <c r="I3" s="26" t="s">
@@ -6888,11 +6917,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
       <c r="G4" s="7"/>
       <c r="H4" s="74"/>
       <c r="I4" s="46" t="s">
@@ -6905,11 +6934,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="140"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6921,29 +6950,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="135" t="s">
+      <c r="I7" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="132"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="133" t="s">
+      <c r="M7" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
-      <c r="R7" s="134"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6998,7 +7027,7 @@
       <c r="B9" s="44">
         <v>1</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="101" t="s">
         <v>271</v>
       </c>
       <c r="D9" s="51" t="s">
@@ -7006,8 +7035,8 @@
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="45"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="111"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="106"/>
       <c r="I9" s="67">
         <v>21</v>
       </c>
@@ -7017,7 +7046,7 @@
       <c r="K9" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="L9" s="101"/>
+      <c r="L9" s="96"/>
       <c r="M9" s="67">
         <v>21</v>
       </c>
@@ -7041,7 +7070,7 @@
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="102" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="50" t="s">
@@ -7049,8 +7078,8 @@
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="111"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="106"/>
       <c r="I10" s="35">
         <v>22</v>
       </c>
@@ -7060,7 +7089,7 @@
       <c r="K10" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="47">
         <v>22</v>
       </c>
@@ -7084,7 +7113,7 @@
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="102" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -7092,8 +7121,8 @@
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="111"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="106"/>
       <c r="I11" s="35">
         <v>23</v>
       </c>
@@ -7103,8 +7132,8 @@
       <c r="K11" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="L11" s="101"/>
-      <c r="M11" s="114">
+      <c r="L11" s="96"/>
+      <c r="M11" s="109">
         <v>23</v>
       </c>
       <c r="N11" s="40" t="s">
@@ -7113,10 +7142,10 @@
       <c r="O11" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="P11" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="115" t="s">
+      <c r="P11" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="110" t="s">
         <v>21</v>
       </c>
       <c r="R11" s="38"/>
@@ -7125,7 +7154,7 @@
       <c r="B12" s="25">
         <v>4</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="102" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="50" t="s">
@@ -7133,8 +7162,8 @@
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="111"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="106"/>
       <c r="I12" s="35">
         <v>24</v>
       </c>
@@ -7144,20 +7173,20 @@
       <c r="K12" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="L12" s="101"/>
-      <c r="M12" s="116">
+      <c r="L12" s="96"/>
+      <c r="M12" s="111">
         <v>24</v>
       </c>
       <c r="N12" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="O12" s="115" t="s">
+      <c r="O12" s="110" t="s">
         <v>191</v>
       </c>
-      <c r="P12" s="115" t="s">
+      <c r="P12" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="115" t="s">
+      <c r="Q12" s="110" t="s">
         <v>21</v>
       </c>
       <c r="R12" s="38"/>
@@ -7166,7 +7195,7 @@
       <c r="B13" s="47">
         <v>5</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="102" t="s">
         <v>272</v>
       </c>
       <c r="D13" s="50" t="s">
@@ -7174,40 +7203,40 @@
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="48"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="111"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="106"/>
       <c r="I13" s="34">
         <v>25</v>
       </c>
-      <c r="J13" s="118" t="s">
+      <c r="J13" s="113" t="s">
         <v>240</v>
       </c>
-      <c r="K13" s="122" t="s">
+      <c r="K13" s="117" t="s">
         <v>293</v>
       </c>
       <c r="L13" s="43"/>
-      <c r="M13" s="117">
-        <v>25</v>
-      </c>
-      <c r="N13" s="123" t="s">
+      <c r="M13" s="112">
+        <v>25</v>
+      </c>
+      <c r="N13" s="118" t="s">
         <v>295</v>
       </c>
-      <c r="O13" s="119" t="s">
+      <c r="O13" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="P13" s="120" t="s">
+      <c r="P13" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="Q13" s="120" t="s">
-        <v>21</v>
-      </c>
-      <c r="R13" s="121"/>
+      <c r="Q13" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="116"/>
     </row>
     <row r="14" spans="2:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B14" s="47">
         <v>6</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="102" t="s">
         <v>273</v>
       </c>
       <c r="D14" s="50" t="s">
@@ -7215,14 +7244,14 @@
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="48"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="111"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="106"/>
     </row>
     <row r="15" spans="2:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B15" s="25">
         <v>7</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="102" t="s">
         <v>274</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -7230,14 +7259,14 @@
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="48"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="111"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="106"/>
     </row>
     <row r="16" spans="2:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="103" t="s">
         <v>275</v>
       </c>
       <c r="D16" s="26" t="s">
@@ -7245,14 +7274,14 @@
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="48"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="111"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="106"/>
     </row>
     <row r="17" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B17" s="25">
         <v>9</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="103" t="s">
         <v>276</v>
       </c>
       <c r="D17" s="26" t="s">
@@ -7260,14 +7289,14 @@
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="48"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="111"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="106"/>
     </row>
     <row r="18" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B18" s="25">
         <v>10</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="102" t="s">
         <v>277</v>
       </c>
       <c r="D18" s="50" t="s">
@@ -7275,14 +7304,14 @@
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="48"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="111"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="106"/>
     </row>
     <row r="19" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B19" s="25">
         <v>11</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="102" t="s">
         <v>278</v>
       </c>
       <c r="D19" s="50" t="s">
@@ -7290,14 +7319,14 @@
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="48"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="111"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="106"/>
     </row>
     <row r="20" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B20" s="25">
         <v>13</v>
       </c>
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="102" t="s">
         <v>280</v>
       </c>
       <c r="D20" s="50" t="s">
@@ -7305,14 +7334,14 @@
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="48"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="111"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="106"/>
     </row>
     <row r="21" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B21" s="47">
         <v>14</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="102" t="s">
         <v>281</v>
       </c>
       <c r="D21" s="50" t="s">
@@ -7320,14 +7349,14 @@
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="48"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="111"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="106"/>
     </row>
     <row r="22" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B22" s="25">
         <v>16</v>
       </c>
-      <c r="C22" s="110" t="s">
+      <c r="C22" s="105" t="s">
         <v>279</v>
       </c>
       <c r="D22" s="50" t="s">
@@ -7335,14 +7364,14 @@
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="48"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="111"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="106"/>
     </row>
     <row r="23" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B23" s="25">
         <v>17</v>
       </c>
-      <c r="C23" s="107" t="s">
+      <c r="C23" s="102" t="s">
         <v>282</v>
       </c>
       <c r="D23" s="26" t="s">
@@ -7350,14 +7379,14 @@
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="48"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="111"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="106"/>
     </row>
     <row r="24" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B24" s="25">
         <v>18</v>
       </c>
-      <c r="C24" s="107" t="s">
+      <c r="C24" s="102" t="s">
         <v>283</v>
       </c>
       <c r="D24" s="50" t="s">
@@ -7365,14 +7394,14 @@
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="48"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="111"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="106"/>
     </row>
     <row r="25" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B25" s="25">
         <v>19</v>
       </c>
-      <c r="C25" s="107" t="s">
+      <c r="C25" s="102" t="s">
         <v>284</v>
       </c>
       <c r="D25" s="50" t="s">
@@ -7380,23 +7409,23 @@
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="48"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="111"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="106"/>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="52">
         <v>20</v>
       </c>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="D26" s="113" t="s">
+      <c r="D26" s="108" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="46"/>
       <c r="F26" s="49"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="112"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="8">
